--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="打卡" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -367,7 +367,7 @@
   <dimension ref="A1:H269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="3">G3-F3</f>
+        <f t="shared" ref="H3:H6" si="3">G3-F3</f>
         <v>1</v>
       </c>
     </row>
@@ -527,6 +527,9 @@
       <c r="B6" s="1">
         <v>43964</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>263</v>
@@ -537,7 +540,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -545,7 +548,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -565,7 +568,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -573,7 +576,7 @@
       </c>
       <c r="H7">
         <f>G7-F7</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -593,7 +596,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -601,7 +604,7 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H71" si="5">G8-F8</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -621,7 +624,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -629,7 +632,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -649,7 +652,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -657,7 +660,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -677,7 +680,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -685,7 +688,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -705,7 +708,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -713,7 +716,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -733,7 +736,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -741,7 +744,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -761,7 +764,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -769,7 +772,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -789,7 +792,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -797,7 +800,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -817,7 +820,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -825,7 +828,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -845,7 +848,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -853,7 +856,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -873,7 +876,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -881,7 +884,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -901,7 +904,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -909,7 +912,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -929,7 +932,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -937,7 +940,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -957,7 +960,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -965,7 +968,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -985,7 +988,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -993,7 +996,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1013,7 +1016,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -1021,7 +1024,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1041,7 +1044,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -1049,7 +1052,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1069,7 +1072,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -1077,7 +1080,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1097,7 +1100,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -1105,7 +1108,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,7 +1128,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -1133,7 +1136,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1153,7 +1156,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
@@ -1161,7 +1164,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1181,7 +1184,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
@@ -1189,7 +1192,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,7 +1212,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
@@ -1217,7 +1220,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1237,7 +1240,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
@@ -1245,7 +1248,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1265,7 +1268,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
@@ -1273,7 +1276,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1293,7 +1296,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
@@ -1301,7 +1304,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1321,7 +1324,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
@@ -1329,7 +1332,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1349,7 +1352,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
@@ -1357,7 +1360,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1377,7 +1380,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
@@ -1385,7 +1388,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1405,7 +1408,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
@@ -1413,7 +1416,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1433,7 +1436,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
@@ -1441,7 +1444,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1461,7 +1464,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1489,7 +1492,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
@@ -1497,7 +1500,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1517,7 +1520,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
@@ -1525,7 +1528,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1545,7 +1548,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1573,7 +1576,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
@@ -1581,7 +1584,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1601,7 +1604,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
@@ -1609,7 +1612,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1629,7 +1632,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
@@ -1637,7 +1640,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1657,7 +1660,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
@@ -1665,7 +1668,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1685,7 +1688,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
@@ -1693,7 +1696,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1713,7 +1716,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
@@ -1721,7 +1724,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1741,7 +1744,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
@@ -1749,7 +1752,7 @@
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -1769,7 +1772,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
@@ -1777,7 +1780,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -1797,7 +1800,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
@@ -1805,7 +1808,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1825,7 +1828,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1853,7 +1856,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
@@ -1861,7 +1864,7 @@
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -1881,7 +1884,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
@@ -1889,7 +1892,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -1909,7 +1912,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
@@ -1917,7 +1920,7 @@
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -1937,7 +1940,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
@@ -1945,7 +1948,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -1965,7 +1968,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
@@ -1973,7 +1976,7 @@
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1993,7 +1996,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
@@ -2001,7 +2004,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2021,7 +2024,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
@@ -2029,7 +2032,7 @@
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2049,7 +2052,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
@@ -2057,7 +2060,7 @@
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2077,7 +2080,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
@@ -2085,7 +2088,7 @@
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2105,7 +2108,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
@@ -2113,7 +2116,7 @@
       </c>
       <c r="H62">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2133,7 +2136,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
@@ -2141,7 +2144,7 @@
       </c>
       <c r="H63">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2161,7 +2164,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2189,7 +2192,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
@@ -2197,7 +2200,7 @@
       </c>
       <c r="H65">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2217,7 +2220,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
@@ -2225,7 +2228,7 @@
       </c>
       <c r="H66">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2245,7 +2248,7 @@
       </c>
       <c r="F67">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G130" si="8">536-E67</f>
@@ -2253,7 +2256,7 @@
       </c>
       <c r="H67">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2273,7 +2276,7 @@
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F131" si="9">C68+F67</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <f t="shared" si="8"/>
@@ -2281,7 +2284,7 @@
       </c>
       <c r="H68">
         <f t="shared" si="5"/>
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2301,7 +2304,7 @@
       </c>
       <c r="F69">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69">
         <f t="shared" si="8"/>
@@ -2309,7 +2312,7 @@
       </c>
       <c r="H69">
         <f t="shared" si="5"/>
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2329,7 +2332,7 @@
       </c>
       <c r="F70">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <f t="shared" si="8"/>
@@ -2337,7 +2340,7 @@
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2357,7 +2360,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <f t="shared" si="8"/>
@@ -2365,7 +2368,7 @@
       </c>
       <c r="H71">
         <f t="shared" si="5"/>
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2385,7 +2388,7 @@
       </c>
       <c r="F72">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72">
         <f t="shared" si="8"/>
@@ -2393,7 +2396,7 @@
       </c>
       <c r="H72">
         <f t="shared" ref="H72:H135" si="10">G72-F72</f>
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2413,7 +2416,7 @@
       </c>
       <c r="F73">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G73">
         <f t="shared" si="8"/>
@@ -2421,7 +2424,7 @@
       </c>
       <c r="H73">
         <f t="shared" si="10"/>
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2441,7 +2444,7 @@
       </c>
       <c r="F74">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G74">
         <f t="shared" si="8"/>
@@ -2449,7 +2452,7 @@
       </c>
       <c r="H74">
         <f t="shared" si="10"/>
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -2469,7 +2472,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75">
         <f t="shared" si="8"/>
@@ -2477,7 +2480,7 @@
       </c>
       <c r="H75">
         <f t="shared" si="10"/>
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -2497,7 +2500,7 @@
       </c>
       <c r="F76">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G76">
         <f t="shared" si="8"/>
@@ -2505,7 +2508,7 @@
       </c>
       <c r="H76">
         <f t="shared" si="10"/>
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2525,7 +2528,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77">
         <f t="shared" si="8"/>
@@ -2533,7 +2536,7 @@
       </c>
       <c r="H77">
         <f t="shared" si="10"/>
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2553,7 +2556,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G78">
         <f t="shared" si="8"/>
@@ -2561,7 +2564,7 @@
       </c>
       <c r="H78">
         <f t="shared" si="10"/>
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -2581,7 +2584,7 @@
       </c>
       <c r="F79">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79">
         <f t="shared" si="8"/>
@@ -2589,7 +2592,7 @@
       </c>
       <c r="H79">
         <f t="shared" si="10"/>
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2609,7 +2612,7 @@
       </c>
       <c r="F80">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G80">
         <f t="shared" si="8"/>
@@ -2617,7 +2620,7 @@
       </c>
       <c r="H80">
         <f t="shared" si="10"/>
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -2637,7 +2640,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G81">
         <f t="shared" si="8"/>
@@ -2645,7 +2648,7 @@
       </c>
       <c r="H81">
         <f t="shared" si="10"/>
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -2665,7 +2668,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G82">
         <f t="shared" si="8"/>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="H82">
         <f t="shared" si="10"/>
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -2693,7 +2696,7 @@
       </c>
       <c r="F83">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <f t="shared" si="8"/>
@@ -2701,7 +2704,7 @@
       </c>
       <c r="H83">
         <f t="shared" si="10"/>
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -2721,7 +2724,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G84">
         <f t="shared" si="8"/>
@@ -2729,7 +2732,7 @@
       </c>
       <c r="H84">
         <f t="shared" si="10"/>
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -2749,7 +2752,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G85">
         <f t="shared" si="8"/>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="H85">
         <f t="shared" si="10"/>
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2777,7 +2780,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G86">
         <f t="shared" si="8"/>
@@ -2785,7 +2788,7 @@
       </c>
       <c r="H86">
         <f t="shared" si="10"/>
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -2805,7 +2808,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G87">
         <f t="shared" si="8"/>
@@ -2813,7 +2816,7 @@
       </c>
       <c r="H87">
         <f t="shared" si="10"/>
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -2833,7 +2836,7 @@
       </c>
       <c r="F88">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G88">
         <f t="shared" si="8"/>
@@ -2841,7 +2844,7 @@
       </c>
       <c r="H88">
         <f t="shared" si="10"/>
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -2861,7 +2864,7 @@
       </c>
       <c r="F89">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G89">
         <f t="shared" si="8"/>
@@ -2869,7 +2872,7 @@
       </c>
       <c r="H89">
         <f t="shared" si="10"/>
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -2889,7 +2892,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G90">
         <f t="shared" si="8"/>
@@ -2897,7 +2900,7 @@
       </c>
       <c r="H90">
         <f t="shared" si="10"/>
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -2917,7 +2920,7 @@
       </c>
       <c r="F91">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G91">
         <f t="shared" si="8"/>
@@ -2925,7 +2928,7 @@
       </c>
       <c r="H91">
         <f t="shared" si="10"/>
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -2945,7 +2948,7 @@
       </c>
       <c r="F92">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G92">
         <f t="shared" si="8"/>
@@ -2953,7 +2956,7 @@
       </c>
       <c r="H92">
         <f t="shared" si="10"/>
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -2973,7 +2976,7 @@
       </c>
       <c r="F93">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G93">
         <f t="shared" si="8"/>
@@ -2981,7 +2984,7 @@
       </c>
       <c r="H93">
         <f t="shared" si="10"/>
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3001,7 +3004,7 @@
       </c>
       <c r="F94">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G94">
         <f t="shared" si="8"/>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="H94">
         <f t="shared" si="10"/>
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -3029,7 +3032,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G95">
         <f t="shared" si="8"/>
@@ -3037,7 +3040,7 @@
       </c>
       <c r="H95">
         <f t="shared" si="10"/>
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3057,7 +3060,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G96">
         <f t="shared" si="8"/>
@@ -3065,7 +3068,7 @@
       </c>
       <c r="H96">
         <f t="shared" si="10"/>
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3085,7 +3088,7 @@
       </c>
       <c r="F97">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G97">
         <f t="shared" si="8"/>
@@ -3093,7 +3096,7 @@
       </c>
       <c r="H97">
         <f t="shared" si="10"/>
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3113,7 +3116,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G98">
         <f t="shared" si="8"/>
@@ -3121,7 +3124,7 @@
       </c>
       <c r="H98">
         <f t="shared" si="10"/>
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3141,7 +3144,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G99">
         <f t="shared" si="8"/>
@@ -3149,7 +3152,7 @@
       </c>
       <c r="H99">
         <f t="shared" si="10"/>
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3169,7 +3172,7 @@
       </c>
       <c r="F100">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G100">
         <f t="shared" si="8"/>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="H100">
         <f t="shared" si="10"/>
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3197,7 +3200,7 @@
       </c>
       <c r="F101">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G101">
         <f t="shared" si="8"/>
@@ -3205,7 +3208,7 @@
       </c>
       <c r="H101">
         <f t="shared" si="10"/>
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3225,7 +3228,7 @@
       </c>
       <c r="F102">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G102">
         <f t="shared" si="8"/>
@@ -3233,7 +3236,7 @@
       </c>
       <c r="H102">
         <f t="shared" si="10"/>
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3253,7 +3256,7 @@
       </c>
       <c r="F103">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G103">
         <f t="shared" si="8"/>
@@ -3261,7 +3264,7 @@
       </c>
       <c r="H103">
         <f t="shared" si="10"/>
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3281,7 +3284,7 @@
       </c>
       <c r="F104">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G104">
         <f t="shared" si="8"/>
@@ -3289,7 +3292,7 @@
       </c>
       <c r="H104">
         <f t="shared" si="10"/>
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3309,7 +3312,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G105">
         <f t="shared" si="8"/>
@@ -3317,7 +3320,7 @@
       </c>
       <c r="H105">
         <f t="shared" si="10"/>
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3337,7 +3340,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G106">
         <f t="shared" si="8"/>
@@ -3345,7 +3348,7 @@
       </c>
       <c r="H106">
         <f t="shared" si="10"/>
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3365,7 +3368,7 @@
       </c>
       <c r="F107">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G107">
         <f t="shared" si="8"/>
@@ -3373,7 +3376,7 @@
       </c>
       <c r="H107">
         <f t="shared" si="10"/>
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3393,7 +3396,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G108">
         <f t="shared" si="8"/>
@@ -3401,7 +3404,7 @@
       </c>
       <c r="H108">
         <f t="shared" si="10"/>
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3421,7 +3424,7 @@
       </c>
       <c r="F109">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G109">
         <f t="shared" si="8"/>
@@ -3429,7 +3432,7 @@
       </c>
       <c r="H109">
         <f t="shared" si="10"/>
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3449,7 +3452,7 @@
       </c>
       <c r="F110">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G110">
         <f t="shared" si="8"/>
@@ -3457,7 +3460,7 @@
       </c>
       <c r="H110">
         <f t="shared" si="10"/>
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -3477,7 +3480,7 @@
       </c>
       <c r="F111">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G111">
         <f t="shared" si="8"/>
@@ -3485,7 +3488,7 @@
       </c>
       <c r="H111">
         <f t="shared" si="10"/>
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -3505,7 +3508,7 @@
       </c>
       <c r="F112">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G112">
         <f t="shared" si="8"/>
@@ -3513,7 +3516,7 @@
       </c>
       <c r="H112">
         <f t="shared" si="10"/>
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -3533,7 +3536,7 @@
       </c>
       <c r="F113">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G113">
         <f t="shared" si="8"/>
@@ -3541,7 +3544,7 @@
       </c>
       <c r="H113">
         <f t="shared" si="10"/>
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -3561,7 +3564,7 @@
       </c>
       <c r="F114">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G114">
         <f t="shared" si="8"/>
@@ -3569,7 +3572,7 @@
       </c>
       <c r="H114">
         <f t="shared" si="10"/>
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -3589,7 +3592,7 @@
       </c>
       <c r="F115">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G115">
         <f t="shared" si="8"/>
@@ -3597,7 +3600,7 @@
       </c>
       <c r="H115">
         <f t="shared" si="10"/>
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -3617,7 +3620,7 @@
       </c>
       <c r="F116">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G116">
         <f t="shared" si="8"/>
@@ -3625,7 +3628,7 @@
       </c>
       <c r="H116">
         <f t="shared" si="10"/>
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -3645,7 +3648,7 @@
       </c>
       <c r="F117">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G117">
         <f t="shared" si="8"/>
@@ -3653,7 +3656,7 @@
       </c>
       <c r="H117">
         <f t="shared" si="10"/>
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -3673,7 +3676,7 @@
       </c>
       <c r="F118">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G118">
         <f t="shared" si="8"/>
@@ -3681,7 +3684,7 @@
       </c>
       <c r="H118">
         <f t="shared" si="10"/>
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -3701,7 +3704,7 @@
       </c>
       <c r="F119">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G119">
         <f t="shared" si="8"/>
@@ -3709,7 +3712,7 @@
       </c>
       <c r="H119">
         <f t="shared" si="10"/>
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -3729,7 +3732,7 @@
       </c>
       <c r="F120">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G120">
         <f t="shared" si="8"/>
@@ -3737,7 +3740,7 @@
       </c>
       <c r="H120">
         <f t="shared" si="10"/>
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -3757,7 +3760,7 @@
       </c>
       <c r="F121">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G121">
         <f t="shared" si="8"/>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="H121">
         <f t="shared" si="10"/>
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -3785,7 +3788,7 @@
       </c>
       <c r="F122">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G122">
         <f t="shared" si="8"/>
@@ -3793,7 +3796,7 @@
       </c>
       <c r="H122">
         <f t="shared" si="10"/>
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3813,7 +3816,7 @@
       </c>
       <c r="F123">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G123">
         <f t="shared" si="8"/>
@@ -3821,7 +3824,7 @@
       </c>
       <c r="H123">
         <f t="shared" si="10"/>
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -3841,7 +3844,7 @@
       </c>
       <c r="F124">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G124">
         <f t="shared" si="8"/>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="H124">
         <f t="shared" si="10"/>
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -3869,7 +3872,7 @@
       </c>
       <c r="F125">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G125">
         <f t="shared" si="8"/>
@@ -3877,7 +3880,7 @@
       </c>
       <c r="H125">
         <f t="shared" si="10"/>
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -3897,7 +3900,7 @@
       </c>
       <c r="F126">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G126">
         <f t="shared" si="8"/>
@@ -3905,7 +3908,7 @@
       </c>
       <c r="H126">
         <f t="shared" si="10"/>
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -3925,7 +3928,7 @@
       </c>
       <c r="F127">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G127">
         <f t="shared" si="8"/>
@@ -3933,7 +3936,7 @@
       </c>
       <c r="H127">
         <f t="shared" si="10"/>
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -3953,7 +3956,7 @@
       </c>
       <c r="F128">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G128">
         <f t="shared" si="8"/>
@@ -3961,7 +3964,7 @@
       </c>
       <c r="H128">
         <f t="shared" si="10"/>
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3981,7 +3984,7 @@
       </c>
       <c r="F129">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G129">
         <f t="shared" si="8"/>
@@ -3989,7 +3992,7 @@
       </c>
       <c r="H129">
         <f t="shared" si="10"/>
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4009,7 +4012,7 @@
       </c>
       <c r="F130">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G130">
         <f t="shared" si="8"/>
@@ -4017,7 +4020,7 @@
       </c>
       <c r="H130">
         <f t="shared" si="10"/>
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4037,7 +4040,7 @@
       </c>
       <c r="F131">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G131">
         <f t="shared" ref="G131:G194" si="13">536-E131</f>
@@ -4045,7 +4048,7 @@
       </c>
       <c r="H131">
         <f t="shared" si="10"/>
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4065,7 +4068,7 @@
       </c>
       <c r="F132">
         <f t="shared" ref="F132:F195" si="14">C132+F131</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G132">
         <f t="shared" si="13"/>
@@ -4073,7 +4076,7 @@
       </c>
       <c r="H132">
         <f t="shared" si="10"/>
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4093,7 +4096,7 @@
       </c>
       <c r="F133">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G133">
         <f t="shared" si="13"/>
@@ -4101,7 +4104,7 @@
       </c>
       <c r="H133">
         <f t="shared" si="10"/>
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -4121,7 +4124,7 @@
       </c>
       <c r="F134">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G134">
         <f t="shared" si="13"/>
@@ -4129,7 +4132,7 @@
       </c>
       <c r="H134">
         <f t="shared" si="10"/>
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4149,7 +4152,7 @@
       </c>
       <c r="F135">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G135">
         <f t="shared" si="13"/>
@@ -4157,7 +4160,7 @@
       </c>
       <c r="H135">
         <f t="shared" si="10"/>
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4177,7 +4180,7 @@
       </c>
       <c r="F136">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G136">
         <f t="shared" si="13"/>
@@ -4185,7 +4188,7 @@
       </c>
       <c r="H136">
         <f t="shared" ref="H136:H199" si="15">G136-F136</f>
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4205,7 +4208,7 @@
       </c>
       <c r="F137">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G137">
         <f t="shared" si="13"/>
@@ -4213,7 +4216,7 @@
       </c>
       <c r="H137">
         <f t="shared" si="15"/>
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4233,7 +4236,7 @@
       </c>
       <c r="F138">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G138">
         <f t="shared" si="13"/>
@@ -4241,7 +4244,7 @@
       </c>
       <c r="H138">
         <f t="shared" si="15"/>
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4261,7 +4264,7 @@
       </c>
       <c r="F139">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G139">
         <f t="shared" si="13"/>
@@ -4269,7 +4272,7 @@
       </c>
       <c r="H139">
         <f t="shared" si="15"/>
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -4289,7 +4292,7 @@
       </c>
       <c r="F140">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G140">
         <f t="shared" si="13"/>
@@ -4297,7 +4300,7 @@
       </c>
       <c r="H140">
         <f t="shared" si="15"/>
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4317,7 +4320,7 @@
       </c>
       <c r="F141">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G141">
         <f t="shared" si="13"/>
@@ -4325,7 +4328,7 @@
       </c>
       <c r="H141">
         <f t="shared" si="15"/>
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4345,7 +4348,7 @@
       </c>
       <c r="F142">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G142">
         <f t="shared" si="13"/>
@@ -4353,7 +4356,7 @@
       </c>
       <c r="H142">
         <f t="shared" si="15"/>
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4373,7 +4376,7 @@
       </c>
       <c r="F143">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G143">
         <f t="shared" si="13"/>
@@ -4381,7 +4384,7 @@
       </c>
       <c r="H143">
         <f t="shared" si="15"/>
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4401,7 +4404,7 @@
       </c>
       <c r="F144">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G144">
         <f t="shared" si="13"/>
@@ -4409,7 +4412,7 @@
       </c>
       <c r="H144">
         <f t="shared" si="15"/>
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4429,7 +4432,7 @@
       </c>
       <c r="F145">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G145">
         <f t="shared" si="13"/>
@@ -4437,7 +4440,7 @@
       </c>
       <c r="H145">
         <f t="shared" si="15"/>
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -4457,7 +4460,7 @@
       </c>
       <c r="F146">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G146">
         <f t="shared" si="13"/>
@@ -4465,7 +4468,7 @@
       </c>
       <c r="H146">
         <f t="shared" si="15"/>
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -4485,7 +4488,7 @@
       </c>
       <c r="F147">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G147">
         <f t="shared" si="13"/>
@@ -4493,7 +4496,7 @@
       </c>
       <c r="H147">
         <f t="shared" si="15"/>
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -4513,7 +4516,7 @@
       </c>
       <c r="F148">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G148">
         <f t="shared" si="13"/>
@@ -4521,7 +4524,7 @@
       </c>
       <c r="H148">
         <f t="shared" si="15"/>
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -4541,7 +4544,7 @@
       </c>
       <c r="F149">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G149">
         <f t="shared" si="13"/>
@@ -4549,7 +4552,7 @@
       </c>
       <c r="H149">
         <f t="shared" si="15"/>
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -4569,7 +4572,7 @@
       </c>
       <c r="F150">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G150">
         <f t="shared" si="13"/>
@@ -4577,7 +4580,7 @@
       </c>
       <c r="H150">
         <f t="shared" si="15"/>
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -4597,7 +4600,7 @@
       </c>
       <c r="F151">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G151">
         <f t="shared" si="13"/>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="H151">
         <f t="shared" si="15"/>
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -4625,7 +4628,7 @@
       </c>
       <c r="F152">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G152">
         <f t="shared" si="13"/>
@@ -4633,7 +4636,7 @@
       </c>
       <c r="H152">
         <f t="shared" si="15"/>
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -4653,7 +4656,7 @@
       </c>
       <c r="F153">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G153">
         <f t="shared" si="13"/>
@@ -4661,7 +4664,7 @@
       </c>
       <c r="H153">
         <f t="shared" si="15"/>
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -4681,7 +4684,7 @@
       </c>
       <c r="F154">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G154">
         <f t="shared" si="13"/>
@@ -4689,7 +4692,7 @@
       </c>
       <c r="H154">
         <f t="shared" si="15"/>
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -4709,7 +4712,7 @@
       </c>
       <c r="F155">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G155">
         <f t="shared" si="13"/>
@@ -4717,7 +4720,7 @@
       </c>
       <c r="H155">
         <f t="shared" si="15"/>
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -4737,7 +4740,7 @@
       </c>
       <c r="F156">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G156">
         <f t="shared" si="13"/>
@@ -4745,7 +4748,7 @@
       </c>
       <c r="H156">
         <f t="shared" si="15"/>
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -4765,7 +4768,7 @@
       </c>
       <c r="F157">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G157">
         <f t="shared" si="13"/>
@@ -4773,7 +4776,7 @@
       </c>
       <c r="H157">
         <f t="shared" si="15"/>
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -4793,7 +4796,7 @@
       </c>
       <c r="F158">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G158">
         <f t="shared" si="13"/>
@@ -4801,7 +4804,7 @@
       </c>
       <c r="H158">
         <f t="shared" si="15"/>
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -4821,7 +4824,7 @@
       </c>
       <c r="F159">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G159">
         <f t="shared" si="13"/>
@@ -4829,7 +4832,7 @@
       </c>
       <c r="H159">
         <f t="shared" si="15"/>
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -4849,7 +4852,7 @@
       </c>
       <c r="F160">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G160">
         <f t="shared" si="13"/>
@@ -4857,7 +4860,7 @@
       </c>
       <c r="H160">
         <f t="shared" si="15"/>
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -4877,7 +4880,7 @@
       </c>
       <c r="F161">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G161">
         <f t="shared" si="13"/>
@@ -4885,7 +4888,7 @@
       </c>
       <c r="H161">
         <f t="shared" si="15"/>
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -4905,7 +4908,7 @@
       </c>
       <c r="F162">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G162">
         <f t="shared" si="13"/>
@@ -4913,7 +4916,7 @@
       </c>
       <c r="H162">
         <f t="shared" si="15"/>
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -4933,7 +4936,7 @@
       </c>
       <c r="F163">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G163">
         <f t="shared" si="13"/>
@@ -4941,7 +4944,7 @@
       </c>
       <c r="H163">
         <f t="shared" si="15"/>
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -4961,7 +4964,7 @@
       </c>
       <c r="F164">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G164">
         <f t="shared" si="13"/>
@@ -4969,7 +4972,7 @@
       </c>
       <c r="H164">
         <f t="shared" si="15"/>
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -4989,7 +4992,7 @@
       </c>
       <c r="F165">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G165">
         <f t="shared" si="13"/>
@@ -4997,7 +5000,7 @@
       </c>
       <c r="H165">
         <f t="shared" si="15"/>
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -5017,7 +5020,7 @@
       </c>
       <c r="F166">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G166">
         <f t="shared" si="13"/>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="H166">
         <f t="shared" si="15"/>
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -5045,7 +5048,7 @@
       </c>
       <c r="F167">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G167">
         <f t="shared" si="13"/>
@@ -5053,7 +5056,7 @@
       </c>
       <c r="H167">
         <f t="shared" si="15"/>
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -5073,7 +5076,7 @@
       </c>
       <c r="F168">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G168">
         <f t="shared" si="13"/>
@@ -5081,7 +5084,7 @@
       </c>
       <c r="H168">
         <f t="shared" si="15"/>
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -5101,7 +5104,7 @@
       </c>
       <c r="F169">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G169">
         <f t="shared" si="13"/>
@@ -5109,7 +5112,7 @@
       </c>
       <c r="H169">
         <f t="shared" si="15"/>
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -5129,7 +5132,7 @@
       </c>
       <c r="F170">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G170">
         <f t="shared" si="13"/>
@@ -5137,7 +5140,7 @@
       </c>
       <c r="H170">
         <f t="shared" si="15"/>
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -5157,7 +5160,7 @@
       </c>
       <c r="F171">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G171">
         <f t="shared" si="13"/>
@@ -5165,7 +5168,7 @@
       </c>
       <c r="H171">
         <f t="shared" si="15"/>
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -5185,7 +5188,7 @@
       </c>
       <c r="F172">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G172">
         <f t="shared" si="13"/>
@@ -5193,7 +5196,7 @@
       </c>
       <c r="H172">
         <f t="shared" si="15"/>
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -5213,7 +5216,7 @@
       </c>
       <c r="F173">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G173">
         <f t="shared" si="13"/>
@@ -5221,7 +5224,7 @@
       </c>
       <c r="H173">
         <f t="shared" si="15"/>
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -5241,7 +5244,7 @@
       </c>
       <c r="F174">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G174">
         <f t="shared" si="13"/>
@@ -5249,7 +5252,7 @@
       </c>
       <c r="H174">
         <f t="shared" si="15"/>
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -5269,7 +5272,7 @@
       </c>
       <c r="F175">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G175">
         <f t="shared" si="13"/>
@@ -5277,7 +5280,7 @@
       </c>
       <c r="H175">
         <f t="shared" si="15"/>
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -5297,7 +5300,7 @@
       </c>
       <c r="F176">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G176">
         <f t="shared" si="13"/>
@@ -5305,7 +5308,7 @@
       </c>
       <c r="H176">
         <f t="shared" si="15"/>
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5325,7 +5328,7 @@
       </c>
       <c r="F177">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G177">
         <f t="shared" si="13"/>
@@ -5333,7 +5336,7 @@
       </c>
       <c r="H177">
         <f t="shared" si="15"/>
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5353,7 +5356,7 @@
       </c>
       <c r="F178">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G178">
         <f t="shared" si="13"/>
@@ -5361,7 +5364,7 @@
       </c>
       <c r="H178">
         <f t="shared" si="15"/>
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5381,7 +5384,7 @@
       </c>
       <c r="F179">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G179">
         <f t="shared" si="13"/>
@@ -5389,7 +5392,7 @@
       </c>
       <c r="H179">
         <f t="shared" si="15"/>
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5409,7 +5412,7 @@
       </c>
       <c r="F180">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G180">
         <f t="shared" si="13"/>
@@ -5417,7 +5420,7 @@
       </c>
       <c r="H180">
         <f t="shared" si="15"/>
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5437,7 +5440,7 @@
       </c>
       <c r="F181">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G181">
         <f t="shared" si="13"/>
@@ -5445,7 +5448,7 @@
       </c>
       <c r="H181">
         <f t="shared" si="15"/>
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5465,7 +5468,7 @@
       </c>
       <c r="F182">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G182">
         <f t="shared" si="13"/>
@@ -5473,7 +5476,7 @@
       </c>
       <c r="H182">
         <f t="shared" si="15"/>
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5493,7 +5496,7 @@
       </c>
       <c r="F183">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G183">
         <f t="shared" si="13"/>
@@ -5501,7 +5504,7 @@
       </c>
       <c r="H183">
         <f t="shared" si="15"/>
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5521,7 +5524,7 @@
       </c>
       <c r="F184">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G184">
         <f t="shared" si="13"/>
@@ -5529,7 +5532,7 @@
       </c>
       <c r="H184">
         <f t="shared" si="15"/>
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -5549,7 +5552,7 @@
       </c>
       <c r="F185">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G185">
         <f t="shared" si="13"/>
@@ -5557,7 +5560,7 @@
       </c>
       <c r="H185">
         <f t="shared" si="15"/>
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -5577,7 +5580,7 @@
       </c>
       <c r="F186">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G186">
         <f t="shared" si="13"/>
@@ -5585,7 +5588,7 @@
       </c>
       <c r="H186">
         <f t="shared" si="15"/>
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -5605,7 +5608,7 @@
       </c>
       <c r="F187">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G187">
         <f t="shared" si="13"/>
@@ -5613,7 +5616,7 @@
       </c>
       <c r="H187">
         <f t="shared" si="15"/>
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -5633,7 +5636,7 @@
       </c>
       <c r="F188">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G188">
         <f t="shared" si="13"/>
@@ -5641,7 +5644,7 @@
       </c>
       <c r="H188">
         <f t="shared" si="15"/>
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5661,7 +5664,7 @@
       </c>
       <c r="F189">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G189">
         <f t="shared" si="13"/>
@@ -5669,7 +5672,7 @@
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -5689,7 +5692,7 @@
       </c>
       <c r="F190">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G190">
         <f t="shared" si="13"/>
@@ -5697,7 +5700,7 @@
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5717,7 +5720,7 @@
       </c>
       <c r="F191">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G191">
         <f t="shared" si="13"/>
@@ -5725,7 +5728,7 @@
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -5745,7 +5748,7 @@
       </c>
       <c r="F192">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G192">
         <f t="shared" si="13"/>
@@ -5753,7 +5756,7 @@
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -5773,7 +5776,7 @@
       </c>
       <c r="F193">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G193">
         <f t="shared" si="13"/>
@@ -5781,7 +5784,7 @@
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -5801,7 +5804,7 @@
       </c>
       <c r="F194">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G194">
         <f t="shared" si="13"/>
@@ -5809,7 +5812,7 @@
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -5829,7 +5832,7 @@
       </c>
       <c r="F195">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G195">
         <f t="shared" ref="G195:G258" si="18">536-E195</f>
@@ -5837,7 +5840,7 @@
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -5857,7 +5860,7 @@
       </c>
       <c r="F196">
         <f t="shared" ref="F196:F259" si="19">C196+F195</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G196">
         <f t="shared" si="18"/>
@@ -5865,7 +5868,7 @@
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -5885,7 +5888,7 @@
       </c>
       <c r="F197">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G197">
         <f t="shared" si="18"/>
@@ -5893,7 +5896,7 @@
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -5913,7 +5916,7 @@
       </c>
       <c r="F198">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G198">
         <f t="shared" si="18"/>
@@ -5921,7 +5924,7 @@
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -5941,7 +5944,7 @@
       </c>
       <c r="F199">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G199">
         <f t="shared" si="18"/>
@@ -5949,7 +5952,7 @@
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -5969,7 +5972,7 @@
       </c>
       <c r="F200">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G200">
         <f t="shared" si="18"/>
@@ -5977,7 +5980,7 @@
       </c>
       <c r="H200">
         <f t="shared" ref="H200:H263" si="20">G200-F200</f>
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -5997,7 +6000,7 @@
       </c>
       <c r="F201">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G201">
         <f t="shared" si="18"/>
@@ -6005,7 +6008,7 @@
       </c>
       <c r="H201">
         <f t="shared" si="20"/>
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -6025,7 +6028,7 @@
       </c>
       <c r="F202">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G202">
         <f t="shared" si="18"/>
@@ -6033,7 +6036,7 @@
       </c>
       <c r="H202">
         <f t="shared" si="20"/>
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -6053,7 +6056,7 @@
       </c>
       <c r="F203">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G203">
         <f t="shared" si="18"/>
@@ -6061,7 +6064,7 @@
       </c>
       <c r="H203">
         <f t="shared" si="20"/>
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -6081,7 +6084,7 @@
       </c>
       <c r="F204">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G204">
         <f t="shared" si="18"/>
@@ -6089,7 +6092,7 @@
       </c>
       <c r="H204">
         <f t="shared" si="20"/>
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -6109,7 +6112,7 @@
       </c>
       <c r="F205">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G205">
         <f t="shared" si="18"/>
@@ -6117,7 +6120,7 @@
       </c>
       <c r="H205">
         <f t="shared" si="20"/>
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -6137,7 +6140,7 @@
       </c>
       <c r="F206">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G206">
         <f t="shared" si="18"/>
@@ -6145,7 +6148,7 @@
       </c>
       <c r="H206">
         <f t="shared" si="20"/>
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -6165,7 +6168,7 @@
       </c>
       <c r="F207">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G207">
         <f t="shared" si="18"/>
@@ -6173,7 +6176,7 @@
       </c>
       <c r="H207">
         <f t="shared" si="20"/>
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -6193,7 +6196,7 @@
       </c>
       <c r="F208">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G208">
         <f t="shared" si="18"/>
@@ -6201,7 +6204,7 @@
       </c>
       <c r="H208">
         <f t="shared" si="20"/>
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -6221,7 +6224,7 @@
       </c>
       <c r="F209">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G209">
         <f t="shared" si="18"/>
@@ -6229,7 +6232,7 @@
       </c>
       <c r="H209">
         <f t="shared" si="20"/>
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -6249,7 +6252,7 @@
       </c>
       <c r="F210">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G210">
         <f t="shared" si="18"/>
@@ -6257,7 +6260,7 @@
       </c>
       <c r="H210">
         <f t="shared" si="20"/>
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -6277,7 +6280,7 @@
       </c>
       <c r="F211">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G211">
         <f t="shared" si="18"/>
@@ -6285,7 +6288,7 @@
       </c>
       <c r="H211">
         <f t="shared" si="20"/>
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -6305,7 +6308,7 @@
       </c>
       <c r="F212">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G212">
         <f t="shared" si="18"/>
@@ -6313,7 +6316,7 @@
       </c>
       <c r="H212">
         <f t="shared" si="20"/>
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -6333,7 +6336,7 @@
       </c>
       <c r="F213">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G213">
         <f t="shared" si="18"/>
@@ -6341,7 +6344,7 @@
       </c>
       <c r="H213">
         <f t="shared" si="20"/>
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -6361,7 +6364,7 @@
       </c>
       <c r="F214">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G214">
         <f t="shared" si="18"/>
@@ -6369,7 +6372,7 @@
       </c>
       <c r="H214">
         <f t="shared" si="20"/>
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -6389,7 +6392,7 @@
       </c>
       <c r="F215">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G215">
         <f t="shared" si="18"/>
@@ -6397,7 +6400,7 @@
       </c>
       <c r="H215">
         <f t="shared" si="20"/>
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -6417,7 +6420,7 @@
       </c>
       <c r="F216">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G216">
         <f t="shared" si="18"/>
@@ -6425,7 +6428,7 @@
       </c>
       <c r="H216">
         <f t="shared" si="20"/>
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -6445,7 +6448,7 @@
       </c>
       <c r="F217">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G217">
         <f t="shared" si="18"/>
@@ -6453,7 +6456,7 @@
       </c>
       <c r="H217">
         <f t="shared" si="20"/>
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -6473,7 +6476,7 @@
       </c>
       <c r="F218">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G218">
         <f t="shared" si="18"/>
@@ -6481,7 +6484,7 @@
       </c>
       <c r="H218">
         <f t="shared" si="20"/>
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -6501,7 +6504,7 @@
       </c>
       <c r="F219">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G219">
         <f t="shared" si="18"/>
@@ -6509,7 +6512,7 @@
       </c>
       <c r="H219">
         <f t="shared" si="20"/>
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -6529,7 +6532,7 @@
       </c>
       <c r="F220">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G220">
         <f t="shared" si="18"/>
@@ -6537,7 +6540,7 @@
       </c>
       <c r="H220">
         <f t="shared" si="20"/>
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -6557,7 +6560,7 @@
       </c>
       <c r="F221">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G221">
         <f t="shared" si="18"/>
@@ -6565,7 +6568,7 @@
       </c>
       <c r="H221">
         <f t="shared" si="20"/>
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -6585,7 +6588,7 @@
       </c>
       <c r="F222">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G222">
         <f t="shared" si="18"/>
@@ -6593,7 +6596,7 @@
       </c>
       <c r="H222">
         <f t="shared" si="20"/>
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -6613,7 +6616,7 @@
       </c>
       <c r="F223">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G223">
         <f t="shared" si="18"/>
@@ -6621,7 +6624,7 @@
       </c>
       <c r="H223">
         <f t="shared" si="20"/>
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -6641,7 +6644,7 @@
       </c>
       <c r="F224">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G224">
         <f t="shared" si="18"/>
@@ -6649,7 +6652,7 @@
       </c>
       <c r="H224">
         <f t="shared" si="20"/>
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -6669,7 +6672,7 @@
       </c>
       <c r="F225">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G225">
         <f t="shared" si="18"/>
@@ -6677,7 +6680,7 @@
       </c>
       <c r="H225">
         <f t="shared" si="20"/>
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -6697,7 +6700,7 @@
       </c>
       <c r="F226">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G226">
         <f t="shared" si="18"/>
@@ -6705,7 +6708,7 @@
       </c>
       <c r="H226">
         <f t="shared" si="20"/>
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -6725,7 +6728,7 @@
       </c>
       <c r="F227">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G227">
         <f t="shared" si="18"/>
@@ -6733,7 +6736,7 @@
       </c>
       <c r="H227">
         <f t="shared" si="20"/>
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -6753,7 +6756,7 @@
       </c>
       <c r="F228">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G228">
         <f t="shared" si="18"/>
@@ -6761,7 +6764,7 @@
       </c>
       <c r="H228">
         <f t="shared" si="20"/>
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -6781,7 +6784,7 @@
       </c>
       <c r="F229">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G229">
         <f t="shared" si="18"/>
@@ -6789,7 +6792,7 @@
       </c>
       <c r="H229">
         <f t="shared" si="20"/>
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -6809,7 +6812,7 @@
       </c>
       <c r="F230">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G230">
         <f t="shared" si="18"/>
@@ -6817,7 +6820,7 @@
       </c>
       <c r="H230">
         <f t="shared" si="20"/>
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -6837,7 +6840,7 @@
       </c>
       <c r="F231">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G231">
         <f t="shared" si="18"/>
@@ -6845,7 +6848,7 @@
       </c>
       <c r="H231">
         <f t="shared" si="20"/>
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -6865,7 +6868,7 @@
       </c>
       <c r="F232">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G232">
         <f t="shared" si="18"/>
@@ -6873,7 +6876,7 @@
       </c>
       <c r="H232">
         <f t="shared" si="20"/>
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -6893,7 +6896,7 @@
       </c>
       <c r="F233">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G233">
         <f t="shared" si="18"/>
@@ -6901,7 +6904,7 @@
       </c>
       <c r="H233">
         <f t="shared" si="20"/>
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -6921,7 +6924,7 @@
       </c>
       <c r="F234">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G234">
         <f t="shared" si="18"/>
@@ -6929,7 +6932,7 @@
       </c>
       <c r="H234">
         <f t="shared" si="20"/>
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -6949,7 +6952,7 @@
       </c>
       <c r="F235">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G235">
         <f t="shared" si="18"/>
@@ -6957,7 +6960,7 @@
       </c>
       <c r="H235">
         <f t="shared" si="20"/>
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -6977,7 +6980,7 @@
       </c>
       <c r="F236">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G236">
         <f t="shared" si="18"/>
@@ -6985,7 +6988,7 @@
       </c>
       <c r="H236">
         <f t="shared" si="20"/>
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -7005,7 +7008,7 @@
       </c>
       <c r="F237">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G237">
         <f t="shared" si="18"/>
@@ -7013,7 +7016,7 @@
       </c>
       <c r="H237">
         <f t="shared" si="20"/>
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -7033,7 +7036,7 @@
       </c>
       <c r="F238">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G238">
         <f t="shared" si="18"/>
@@ -7041,7 +7044,7 @@
       </c>
       <c r="H238">
         <f t="shared" si="20"/>
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -7061,7 +7064,7 @@
       </c>
       <c r="F239">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G239">
         <f t="shared" si="18"/>
@@ -7069,7 +7072,7 @@
       </c>
       <c r="H239">
         <f t="shared" si="20"/>
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -7089,7 +7092,7 @@
       </c>
       <c r="F240">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G240">
         <f t="shared" si="18"/>
@@ -7097,7 +7100,7 @@
       </c>
       <c r="H240">
         <f t="shared" si="20"/>
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -7117,7 +7120,7 @@
       </c>
       <c r="F241">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G241">
         <f t="shared" si="18"/>
@@ -7125,7 +7128,7 @@
       </c>
       <c r="H241">
         <f t="shared" si="20"/>
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -7145,7 +7148,7 @@
       </c>
       <c r="F242">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G242">
         <f t="shared" si="18"/>
@@ -7153,7 +7156,7 @@
       </c>
       <c r="H242">
         <f t="shared" si="20"/>
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -7173,7 +7176,7 @@
       </c>
       <c r="F243">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G243">
         <f t="shared" si="18"/>
@@ -7181,7 +7184,7 @@
       </c>
       <c r="H243">
         <f t="shared" si="20"/>
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -7201,7 +7204,7 @@
       </c>
       <c r="F244">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G244">
         <f t="shared" si="18"/>
@@ -7209,7 +7212,7 @@
       </c>
       <c r="H244">
         <f t="shared" si="20"/>
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -7229,7 +7232,7 @@
       </c>
       <c r="F245">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G245">
         <f t="shared" si="18"/>
@@ -7237,7 +7240,7 @@
       </c>
       <c r="H245">
         <f t="shared" si="20"/>
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -7257,7 +7260,7 @@
       </c>
       <c r="F246">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G246">
         <f t="shared" si="18"/>
@@ -7265,7 +7268,7 @@
       </c>
       <c r="H246">
         <f t="shared" si="20"/>
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -7285,7 +7288,7 @@
       </c>
       <c r="F247">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G247">
         <f t="shared" si="18"/>
@@ -7293,7 +7296,7 @@
       </c>
       <c r="H247">
         <f t="shared" si="20"/>
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -7313,7 +7316,7 @@
       </c>
       <c r="F248">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G248">
         <f t="shared" si="18"/>
@@ -7321,7 +7324,7 @@
       </c>
       <c r="H248">
         <f t="shared" si="20"/>
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -7341,7 +7344,7 @@
       </c>
       <c r="F249">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G249">
         <f t="shared" si="18"/>
@@ -7349,7 +7352,7 @@
       </c>
       <c r="H249">
         <f t="shared" si="20"/>
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -7369,7 +7372,7 @@
       </c>
       <c r="F250">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G250">
         <f t="shared" si="18"/>
@@ -7377,7 +7380,7 @@
       </c>
       <c r="H250">
         <f t="shared" si="20"/>
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -7397,7 +7400,7 @@
       </c>
       <c r="F251">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G251">
         <f t="shared" si="18"/>
@@ -7405,7 +7408,7 @@
       </c>
       <c r="H251">
         <f t="shared" si="20"/>
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -7425,7 +7428,7 @@
       </c>
       <c r="F252">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G252">
         <f t="shared" si="18"/>
@@ -7433,7 +7436,7 @@
       </c>
       <c r="H252">
         <f t="shared" si="20"/>
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -7453,7 +7456,7 @@
       </c>
       <c r="F253">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G253">
         <f t="shared" si="18"/>
@@ -7461,7 +7464,7 @@
       </c>
       <c r="H253">
         <f t="shared" si="20"/>
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -7481,7 +7484,7 @@
       </c>
       <c r="F254">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G254">
         <f t="shared" si="18"/>
@@ -7489,7 +7492,7 @@
       </c>
       <c r="H254">
         <f t="shared" si="20"/>
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -7509,7 +7512,7 @@
       </c>
       <c r="F255">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G255">
         <f t="shared" si="18"/>
@@ -7517,7 +7520,7 @@
       </c>
       <c r="H255">
         <f t="shared" si="20"/>
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -7537,7 +7540,7 @@
       </c>
       <c r="F256">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G256">
         <f t="shared" si="18"/>
@@ -7545,7 +7548,7 @@
       </c>
       <c r="H256">
         <f t="shared" si="20"/>
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -7565,7 +7568,7 @@
       </c>
       <c r="F257">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G257">
         <f t="shared" si="18"/>
@@ -7573,7 +7576,7 @@
       </c>
       <c r="H257">
         <f t="shared" si="20"/>
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -7593,7 +7596,7 @@
       </c>
       <c r="F258">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G258">
         <f t="shared" si="18"/>
@@ -7601,7 +7604,7 @@
       </c>
       <c r="H258">
         <f t="shared" si="20"/>
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -7621,7 +7624,7 @@
       </c>
       <c r="F259">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G259">
         <f t="shared" ref="G259:G269" si="23">536-E259</f>
@@ -7629,7 +7632,7 @@
       </c>
       <c r="H259">
         <f t="shared" si="20"/>
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -7649,7 +7652,7 @@
       </c>
       <c r="F260">
         <f t="shared" ref="F260:F269" si="24">C260+F259</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G260">
         <f t="shared" si="23"/>
@@ -7657,7 +7660,7 @@
       </c>
       <c r="H260">
         <f t="shared" si="20"/>
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -7677,7 +7680,7 @@
       </c>
       <c r="F261">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G261">
         <f t="shared" si="23"/>
@@ -7685,7 +7688,7 @@
       </c>
       <c r="H261">
         <f t="shared" si="20"/>
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -7705,7 +7708,7 @@
       </c>
       <c r="F262">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G262">
         <f t="shared" si="23"/>
@@ -7713,7 +7716,7 @@
       </c>
       <c r="H262">
         <f t="shared" si="20"/>
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -7733,7 +7736,7 @@
       </c>
       <c r="F263">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G263">
         <f t="shared" si="23"/>
@@ -7741,7 +7744,7 @@
       </c>
       <c r="H263">
         <f t="shared" si="20"/>
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -7761,7 +7764,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G264">
         <f t="shared" si="23"/>
@@ -7769,7 +7772,7 @@
       </c>
       <c r="H264">
         <f t="shared" ref="H264:H269" si="25">G264-F264</f>
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -7789,7 +7792,7 @@
       </c>
       <c r="F265">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G265">
         <f t="shared" si="23"/>
@@ -7797,7 +7800,7 @@
       </c>
       <c r="H265">
         <f t="shared" si="25"/>
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -7817,7 +7820,7 @@
       </c>
       <c r="F266">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G266">
         <f t="shared" si="23"/>
@@ -7825,7 +7828,7 @@
       </c>
       <c r="H266">
         <f t="shared" si="25"/>
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -7845,7 +7848,7 @@
       </c>
       <c r="F267">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G267">
         <f t="shared" si="23"/>
@@ -7853,7 +7856,7 @@
       </c>
       <c r="H267">
         <f t="shared" si="25"/>
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -7873,7 +7876,7 @@
       </c>
       <c r="F268">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G268">
         <f t="shared" si="23"/>
@@ -7881,7 +7884,7 @@
       </c>
       <c r="H268">
         <f t="shared" si="25"/>
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -7901,7 +7904,7 @@
       </c>
       <c r="F269">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G269">
         <f t="shared" si="23"/>
@@ -7909,7 +7912,7 @@
       </c>
       <c r="H269">
         <f t="shared" si="25"/>
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29E84500-5227-4771-9A5A-0663676F0862}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,24 +364,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44227</v>
       </c>
@@ -427,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44227</v>
       </c>
@@ -458,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44227</v>
       </c>
@@ -489,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44227</v>
       </c>
@@ -520,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44227</v>
       </c>
@@ -551,12 +552,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44227</v>
       </c>
       <c r="B7" s="1">
         <v>43965</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -568,7 +572,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -576,15 +580,18 @@
       </c>
       <c r="H7">
         <f>G7-F7</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44227</v>
       </c>
       <c r="B8" s="1">
         <v>43966</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -596,7 +603,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -604,15 +611,18 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H71" si="5">G8-F8</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44227</v>
       </c>
       <c r="B9" s="1">
         <v>43967</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -624,7 +634,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -632,15 +642,18 @@
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44227</v>
       </c>
       <c r="B10" s="1">
         <v>43968</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -652,7 +665,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -660,15 +673,18 @@
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44227</v>
       </c>
       <c r="B11" s="1">
         <v>43969</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -680,7 +696,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -688,10 +704,10 @@
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44227</v>
       </c>
@@ -708,7 +724,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -716,10 +732,10 @@
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44227</v>
       </c>
@@ -736,7 +752,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -744,10 +760,10 @@
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44227</v>
       </c>
@@ -764,7 +780,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -772,10 +788,10 @@
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44227</v>
       </c>
@@ -792,7 +808,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -800,10 +816,10 @@
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44227</v>
       </c>
@@ -820,7 +836,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -828,10 +844,10 @@
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44227</v>
       </c>
@@ -848,7 +864,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -856,10 +872,10 @@
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44227</v>
       </c>
@@ -876,7 +892,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -884,10 +900,10 @@
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44227</v>
       </c>
@@ -904,7 +920,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -912,10 +928,10 @@
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44227</v>
       </c>
@@ -932,7 +948,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -940,10 +956,10 @@
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44227</v>
       </c>
@@ -960,7 +976,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -968,10 +984,10 @@
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44227</v>
       </c>
@@ -988,7 +1004,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -996,10 +1012,10 @@
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44227</v>
       </c>
@@ -1016,7 +1032,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -1024,10 +1040,10 @@
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44227</v>
       </c>
@@ -1044,7 +1060,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -1052,10 +1068,10 @@
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44227</v>
       </c>
@@ -1072,7 +1088,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -1080,10 +1096,10 @@
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44227</v>
       </c>
@@ -1100,7 +1116,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -1108,10 +1124,10 @@
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44227</v>
       </c>
@@ -1128,7 +1144,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -1136,10 +1152,10 @@
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44227</v>
       </c>
@@ -1156,7 +1172,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
@@ -1164,10 +1180,10 @@
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44227</v>
       </c>
@@ -1184,7 +1200,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
@@ -1192,10 +1208,10 @@
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44227</v>
       </c>
@@ -1212,7 +1228,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
@@ -1220,10 +1236,10 @@
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44227</v>
       </c>
@@ -1240,7 +1256,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
@@ -1248,10 +1264,10 @@
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44227</v>
       </c>
@@ -1268,7 +1284,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
@@ -1276,10 +1292,10 @@
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44227</v>
       </c>
@@ -1296,7 +1312,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
@@ -1304,10 +1320,10 @@
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44227</v>
       </c>
@@ -1324,7 +1340,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
@@ -1332,10 +1348,10 @@
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44227</v>
       </c>
@@ -1352,7 +1368,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
@@ -1360,10 +1376,10 @@
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44227</v>
       </c>
@@ -1380,7 +1396,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
@@ -1388,10 +1404,10 @@
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44227</v>
       </c>
@@ -1408,7 +1424,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
@@ -1416,10 +1432,10 @@
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44227</v>
       </c>
@@ -1436,7 +1452,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
@@ -1444,10 +1460,10 @@
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44227</v>
       </c>
@@ -1464,7 +1480,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
@@ -1472,10 +1488,10 @@
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44227</v>
       </c>
@@ -1492,7 +1508,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
@@ -1500,10 +1516,10 @@
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44227</v>
       </c>
@@ -1520,7 +1536,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
@@ -1528,10 +1544,10 @@
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44227</v>
       </c>
@@ -1548,7 +1564,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
@@ -1556,10 +1572,10 @@
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44227</v>
       </c>
@@ -1576,7 +1592,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
@@ -1584,10 +1600,10 @@
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44227</v>
       </c>
@@ -1604,7 +1620,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
@@ -1612,10 +1628,10 @@
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44227</v>
       </c>
@@ -1632,7 +1648,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
@@ -1640,10 +1656,10 @@
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44227</v>
       </c>
@@ -1660,7 +1676,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
@@ -1668,10 +1684,10 @@
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44227</v>
       </c>
@@ -1688,7 +1704,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
@@ -1696,10 +1712,10 @@
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44227</v>
       </c>
@@ -1716,7 +1732,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
@@ -1724,10 +1740,10 @@
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44227</v>
       </c>
@@ -1744,7 +1760,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
@@ -1752,10 +1768,10 @@
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44227</v>
       </c>
@@ -1772,7 +1788,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
@@ -1780,10 +1796,10 @@
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44227</v>
       </c>
@@ -1800,7 +1816,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
@@ -1808,10 +1824,10 @@
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44227</v>
       </c>
@@ -1828,7 +1844,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
@@ -1836,10 +1852,10 @@
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44227</v>
       </c>
@@ -1856,7 +1872,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
@@ -1864,10 +1880,10 @@
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44227</v>
       </c>
@@ -1884,7 +1900,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
@@ -1892,10 +1908,10 @@
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44227</v>
       </c>
@@ -1912,7 +1928,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
@@ -1920,10 +1936,10 @@
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44227</v>
       </c>
@@ -1940,7 +1956,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
@@ -1948,10 +1964,10 @@
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44227</v>
       </c>
@@ -1968,7 +1984,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
@@ -1976,10 +1992,10 @@
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44227</v>
       </c>
@@ -1996,7 +2012,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
@@ -2004,10 +2020,10 @@
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44227</v>
       </c>
@@ -2024,7 +2040,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
@@ -2032,10 +2048,10 @@
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44227</v>
       </c>
@@ -2052,7 +2068,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
@@ -2060,10 +2076,10 @@
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44227</v>
       </c>
@@ -2080,7 +2096,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
@@ -2088,10 +2104,10 @@
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44227</v>
       </c>
@@ -2108,7 +2124,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
@@ -2116,10 +2132,10 @@
       </c>
       <c r="H62">
         <f t="shared" si="5"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44227</v>
       </c>
@@ -2136,7 +2152,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
@@ -2144,10 +2160,10 @@
       </c>
       <c r="H63">
         <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44227</v>
       </c>
@@ -2164,7 +2180,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
@@ -2172,10 +2188,10 @@
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44227</v>
       </c>
@@ -2192,7 +2208,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
@@ -2200,10 +2216,10 @@
       </c>
       <c r="H65">
         <f t="shared" si="5"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44227</v>
       </c>
@@ -2220,7 +2236,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
@@ -2228,10 +2244,10 @@
       </c>
       <c r="H66">
         <f t="shared" si="5"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44227</v>
       </c>
@@ -2248,7 +2264,7 @@
       </c>
       <c r="F67">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G130" si="8">536-E67</f>
@@ -2256,10 +2272,10 @@
       </c>
       <c r="H67">
         <f t="shared" si="5"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44227</v>
       </c>
@@ -2276,7 +2292,7 @@
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F131" si="9">C68+F67</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G68">
         <f t="shared" si="8"/>
@@ -2284,10 +2300,10 @@
       </c>
       <c r="H68">
         <f t="shared" si="5"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44227</v>
       </c>
@@ -2304,7 +2320,7 @@
       </c>
       <c r="F69">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G69">
         <f t="shared" si="8"/>
@@ -2312,10 +2328,10 @@
       </c>
       <c r="H69">
         <f t="shared" si="5"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44227</v>
       </c>
@@ -2332,7 +2348,7 @@
       </c>
       <c r="F70">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G70">
         <f t="shared" si="8"/>
@@ -2340,10 +2356,10 @@
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44227</v>
       </c>
@@ -2360,7 +2376,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G71">
         <f t="shared" si="8"/>
@@ -2368,10 +2384,10 @@
       </c>
       <c r="H71">
         <f t="shared" si="5"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44227</v>
       </c>
@@ -2388,7 +2404,7 @@
       </c>
       <c r="F72">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G72">
         <f t="shared" si="8"/>
@@ -2396,10 +2412,10 @@
       </c>
       <c r="H72">
         <f t="shared" ref="H72:H135" si="10">G72-F72</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44227</v>
       </c>
@@ -2416,7 +2432,7 @@
       </c>
       <c r="F73">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G73">
         <f t="shared" si="8"/>
@@ -2424,10 +2440,10 @@
       </c>
       <c r="H73">
         <f t="shared" si="10"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44227</v>
       </c>
@@ -2444,7 +2460,7 @@
       </c>
       <c r="F74">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G74">
         <f t="shared" si="8"/>
@@ -2452,10 +2468,10 @@
       </c>
       <c r="H74">
         <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44227</v>
       </c>
@@ -2472,7 +2488,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G75">
         <f t="shared" si="8"/>
@@ -2480,10 +2496,10 @@
       </c>
       <c r="H75">
         <f t="shared" si="10"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44227</v>
       </c>
@@ -2500,7 +2516,7 @@
       </c>
       <c r="F76">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G76">
         <f t="shared" si="8"/>
@@ -2508,10 +2524,10 @@
       </c>
       <c r="H76">
         <f t="shared" si="10"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44227</v>
       </c>
@@ -2528,7 +2544,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G77">
         <f t="shared" si="8"/>
@@ -2536,10 +2552,10 @@
       </c>
       <c r="H77">
         <f t="shared" si="10"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44227</v>
       </c>
@@ -2556,7 +2572,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G78">
         <f t="shared" si="8"/>
@@ -2564,10 +2580,10 @@
       </c>
       <c r="H78">
         <f t="shared" si="10"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44227</v>
       </c>
@@ -2584,7 +2600,7 @@
       </c>
       <c r="F79">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G79">
         <f t="shared" si="8"/>
@@ -2592,10 +2608,10 @@
       </c>
       <c r="H79">
         <f t="shared" si="10"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44227</v>
       </c>
@@ -2612,7 +2628,7 @@
       </c>
       <c r="F80">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G80">
         <f t="shared" si="8"/>
@@ -2620,10 +2636,10 @@
       </c>
       <c r="H80">
         <f t="shared" si="10"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44227</v>
       </c>
@@ -2640,7 +2656,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G81">
         <f t="shared" si="8"/>
@@ -2648,10 +2664,10 @@
       </c>
       <c r="H81">
         <f t="shared" si="10"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44227</v>
       </c>
@@ -2668,7 +2684,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G82">
         <f t="shared" si="8"/>
@@ -2676,10 +2692,10 @@
       </c>
       <c r="H82">
         <f t="shared" si="10"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44227</v>
       </c>
@@ -2696,7 +2712,7 @@
       </c>
       <c r="F83">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G83">
         <f t="shared" si="8"/>
@@ -2704,10 +2720,10 @@
       </c>
       <c r="H83">
         <f t="shared" si="10"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44227</v>
       </c>
@@ -2724,7 +2740,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G84">
         <f t="shared" si="8"/>
@@ -2732,10 +2748,10 @@
       </c>
       <c r="H84">
         <f t="shared" si="10"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44227</v>
       </c>
@@ -2752,7 +2768,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G85">
         <f t="shared" si="8"/>
@@ -2760,10 +2776,10 @@
       </c>
       <c r="H85">
         <f t="shared" si="10"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44227</v>
       </c>
@@ -2780,7 +2796,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G86">
         <f t="shared" si="8"/>
@@ -2788,10 +2804,10 @@
       </c>
       <c r="H86">
         <f t="shared" si="10"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44227</v>
       </c>
@@ -2808,7 +2824,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G87">
         <f t="shared" si="8"/>
@@ -2816,10 +2832,10 @@
       </c>
       <c r="H87">
         <f t="shared" si="10"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44227</v>
       </c>
@@ -2836,7 +2852,7 @@
       </c>
       <c r="F88">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G88">
         <f t="shared" si="8"/>
@@ -2844,10 +2860,10 @@
       </c>
       <c r="H88">
         <f t="shared" si="10"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44227</v>
       </c>
@@ -2864,7 +2880,7 @@
       </c>
       <c r="F89">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G89">
         <f t="shared" si="8"/>
@@ -2872,10 +2888,10 @@
       </c>
       <c r="H89">
         <f t="shared" si="10"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44227</v>
       </c>
@@ -2892,7 +2908,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G90">
         <f t="shared" si="8"/>
@@ -2900,10 +2916,10 @@
       </c>
       <c r="H90">
         <f t="shared" si="10"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44227</v>
       </c>
@@ -2920,7 +2936,7 @@
       </c>
       <c r="F91">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G91">
         <f t="shared" si="8"/>
@@ -2928,10 +2944,10 @@
       </c>
       <c r="H91">
         <f t="shared" si="10"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44227</v>
       </c>
@@ -2948,7 +2964,7 @@
       </c>
       <c r="F92">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G92">
         <f t="shared" si="8"/>
@@ -2956,10 +2972,10 @@
       </c>
       <c r="H92">
         <f t="shared" si="10"/>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44227</v>
       </c>
@@ -2976,7 +2992,7 @@
       </c>
       <c r="F93">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G93">
         <f t="shared" si="8"/>
@@ -2984,10 +3000,10 @@
       </c>
       <c r="H93">
         <f t="shared" si="10"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44227</v>
       </c>
@@ -3004,7 +3020,7 @@
       </c>
       <c r="F94">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G94">
         <f t="shared" si="8"/>
@@ -3012,10 +3028,10 @@
       </c>
       <c r="H94">
         <f t="shared" si="10"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44227</v>
       </c>
@@ -3032,7 +3048,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G95">
         <f t="shared" si="8"/>
@@ -3040,10 +3056,10 @@
       </c>
       <c r="H95">
         <f t="shared" si="10"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44227</v>
       </c>
@@ -3060,7 +3076,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G96">
         <f t="shared" si="8"/>
@@ -3068,10 +3084,10 @@
       </c>
       <c r="H96">
         <f t="shared" si="10"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44227</v>
       </c>
@@ -3088,7 +3104,7 @@
       </c>
       <c r="F97">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G97">
         <f t="shared" si="8"/>
@@ -3096,10 +3112,10 @@
       </c>
       <c r="H97">
         <f t="shared" si="10"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44227</v>
       </c>
@@ -3116,7 +3132,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G98">
         <f t="shared" si="8"/>
@@ -3124,10 +3140,10 @@
       </c>
       <c r="H98">
         <f t="shared" si="10"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44227</v>
       </c>
@@ -3144,7 +3160,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G99">
         <f t="shared" si="8"/>
@@ -3152,10 +3168,10 @@
       </c>
       <c r="H99">
         <f t="shared" si="10"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44227</v>
       </c>
@@ -3172,7 +3188,7 @@
       </c>
       <c r="F100">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G100">
         <f t="shared" si="8"/>
@@ -3180,10 +3196,10 @@
       </c>
       <c r="H100">
         <f t="shared" si="10"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44227</v>
       </c>
@@ -3200,7 +3216,7 @@
       </c>
       <c r="F101">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G101">
         <f t="shared" si="8"/>
@@ -3208,10 +3224,10 @@
       </c>
       <c r="H101">
         <f t="shared" si="10"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44227</v>
       </c>
@@ -3228,7 +3244,7 @@
       </c>
       <c r="F102">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G102">
         <f t="shared" si="8"/>
@@ -3236,10 +3252,10 @@
       </c>
       <c r="H102">
         <f t="shared" si="10"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44227</v>
       </c>
@@ -3256,7 +3272,7 @@
       </c>
       <c r="F103">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G103">
         <f t="shared" si="8"/>
@@ -3264,10 +3280,10 @@
       </c>
       <c r="H103">
         <f t="shared" si="10"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44227</v>
       </c>
@@ -3284,7 +3300,7 @@
       </c>
       <c r="F104">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G104">
         <f t="shared" si="8"/>
@@ -3292,10 +3308,10 @@
       </c>
       <c r="H104">
         <f t="shared" si="10"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44227</v>
       </c>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G105">
         <f t="shared" si="8"/>
@@ -3320,10 +3336,10 @@
       </c>
       <c r="H105">
         <f t="shared" si="10"/>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44227</v>
       </c>
@@ -3340,7 +3356,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G106">
         <f t="shared" si="8"/>
@@ -3348,10 +3364,10 @@
       </c>
       <c r="H106">
         <f t="shared" si="10"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44227</v>
       </c>
@@ -3368,7 +3384,7 @@
       </c>
       <c r="F107">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G107">
         <f t="shared" si="8"/>
@@ -3376,10 +3392,10 @@
       </c>
       <c r="H107">
         <f t="shared" si="10"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44227</v>
       </c>
@@ -3396,7 +3412,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G108">
         <f t="shared" si="8"/>
@@ -3404,10 +3420,10 @@
       </c>
       <c r="H108">
         <f t="shared" si="10"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44227</v>
       </c>
@@ -3424,7 +3440,7 @@
       </c>
       <c r="F109">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G109">
         <f t="shared" si="8"/>
@@ -3432,10 +3448,10 @@
       </c>
       <c r="H109">
         <f t="shared" si="10"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44227</v>
       </c>
@@ -3452,7 +3468,7 @@
       </c>
       <c r="F110">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G110">
         <f t="shared" si="8"/>
@@ -3460,10 +3476,10 @@
       </c>
       <c r="H110">
         <f t="shared" si="10"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44227</v>
       </c>
@@ -3480,7 +3496,7 @@
       </c>
       <c r="F111">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G111">
         <f t="shared" si="8"/>
@@ -3488,10 +3504,10 @@
       </c>
       <c r="H111">
         <f t="shared" si="10"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44227</v>
       </c>
@@ -3508,7 +3524,7 @@
       </c>
       <c r="F112">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G112">
         <f t="shared" si="8"/>
@@ -3516,10 +3532,10 @@
       </c>
       <c r="H112">
         <f t="shared" si="10"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44227</v>
       </c>
@@ -3536,7 +3552,7 @@
       </c>
       <c r="F113">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G113">
         <f t="shared" si="8"/>
@@ -3544,10 +3560,10 @@
       </c>
       <c r="H113">
         <f t="shared" si="10"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44227</v>
       </c>
@@ -3564,7 +3580,7 @@
       </c>
       <c r="F114">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G114">
         <f t="shared" si="8"/>
@@ -3572,10 +3588,10 @@
       </c>
       <c r="H114">
         <f t="shared" si="10"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44227</v>
       </c>
@@ -3592,7 +3608,7 @@
       </c>
       <c r="F115">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G115">
         <f t="shared" si="8"/>
@@ -3600,10 +3616,10 @@
       </c>
       <c r="H115">
         <f t="shared" si="10"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44227</v>
       </c>
@@ -3620,7 +3636,7 @@
       </c>
       <c r="F116">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G116">
         <f t="shared" si="8"/>
@@ -3628,10 +3644,10 @@
       </c>
       <c r="H116">
         <f t="shared" si="10"/>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44227</v>
       </c>
@@ -3648,7 +3664,7 @@
       </c>
       <c r="F117">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G117">
         <f t="shared" si="8"/>
@@ -3656,10 +3672,10 @@
       </c>
       <c r="H117">
         <f t="shared" si="10"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44227</v>
       </c>
@@ -3676,7 +3692,7 @@
       </c>
       <c r="F118">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G118">
         <f t="shared" si="8"/>
@@ -3684,10 +3700,10 @@
       </c>
       <c r="H118">
         <f t="shared" si="10"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44227</v>
       </c>
@@ -3704,7 +3720,7 @@
       </c>
       <c r="F119">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G119">
         <f t="shared" si="8"/>
@@ -3712,10 +3728,10 @@
       </c>
       <c r="H119">
         <f t="shared" si="10"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44227</v>
       </c>
@@ -3732,7 +3748,7 @@
       </c>
       <c r="F120">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G120">
         <f t="shared" si="8"/>
@@ -3740,10 +3756,10 @@
       </c>
       <c r="H120">
         <f t="shared" si="10"/>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44227</v>
       </c>
@@ -3760,7 +3776,7 @@
       </c>
       <c r="F121">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G121">
         <f t="shared" si="8"/>
@@ -3768,10 +3784,10 @@
       </c>
       <c r="H121">
         <f t="shared" si="10"/>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44227</v>
       </c>
@@ -3788,7 +3804,7 @@
       </c>
       <c r="F122">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G122">
         <f t="shared" si="8"/>
@@ -3796,10 +3812,10 @@
       </c>
       <c r="H122">
         <f t="shared" si="10"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44227</v>
       </c>
@@ -3816,7 +3832,7 @@
       </c>
       <c r="F123">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G123">
         <f t="shared" si="8"/>
@@ -3824,10 +3840,10 @@
       </c>
       <c r="H123">
         <f t="shared" si="10"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44227</v>
       </c>
@@ -3844,7 +3860,7 @@
       </c>
       <c r="F124">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G124">
         <f t="shared" si="8"/>
@@ -3852,10 +3868,10 @@
       </c>
       <c r="H124">
         <f t="shared" si="10"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44227</v>
       </c>
@@ -3872,7 +3888,7 @@
       </c>
       <c r="F125">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G125">
         <f t="shared" si="8"/>
@@ -3880,10 +3896,10 @@
       </c>
       <c r="H125">
         <f t="shared" si="10"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44227</v>
       </c>
@@ -3900,7 +3916,7 @@
       </c>
       <c r="F126">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G126">
         <f t="shared" si="8"/>
@@ -3908,10 +3924,10 @@
       </c>
       <c r="H126">
         <f t="shared" si="10"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44227</v>
       </c>
@@ -3928,7 +3944,7 @@
       </c>
       <c r="F127">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G127">
         <f t="shared" si="8"/>
@@ -3936,10 +3952,10 @@
       </c>
       <c r="H127">
         <f t="shared" si="10"/>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44227</v>
       </c>
@@ -3956,7 +3972,7 @@
       </c>
       <c r="F128">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G128">
         <f t="shared" si="8"/>
@@ -3964,10 +3980,10 @@
       </c>
       <c r="H128">
         <f t="shared" si="10"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44227</v>
       </c>
@@ -3984,7 +4000,7 @@
       </c>
       <c r="F129">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G129">
         <f t="shared" si="8"/>
@@ -3992,10 +4008,10 @@
       </c>
       <c r="H129">
         <f t="shared" si="10"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44227</v>
       </c>
@@ -4012,7 +4028,7 @@
       </c>
       <c r="F130">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G130">
         <f t="shared" si="8"/>
@@ -4020,10 +4036,10 @@
       </c>
       <c r="H130">
         <f t="shared" si="10"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44227</v>
       </c>
@@ -4040,7 +4056,7 @@
       </c>
       <c r="F131">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G131">
         <f t="shared" ref="G131:G194" si="13">536-E131</f>
@@ -4048,10 +4064,10 @@
       </c>
       <c r="H131">
         <f t="shared" si="10"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44227</v>
       </c>
@@ -4068,7 +4084,7 @@
       </c>
       <c r="F132">
         <f t="shared" ref="F132:F195" si="14">C132+F131</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G132">
         <f t="shared" si="13"/>
@@ -4076,10 +4092,10 @@
       </c>
       <c r="H132">
         <f t="shared" si="10"/>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44227</v>
       </c>
@@ -4096,7 +4112,7 @@
       </c>
       <c r="F133">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G133">
         <f t="shared" si="13"/>
@@ -4104,10 +4120,10 @@
       </c>
       <c r="H133">
         <f t="shared" si="10"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44227</v>
       </c>
@@ -4124,7 +4140,7 @@
       </c>
       <c r="F134">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G134">
         <f t="shared" si="13"/>
@@ -4132,10 +4148,10 @@
       </c>
       <c r="H134">
         <f t="shared" si="10"/>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44227</v>
       </c>
@@ -4152,7 +4168,7 @@
       </c>
       <c r="F135">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G135">
         <f t="shared" si="13"/>
@@ -4160,10 +4176,10 @@
       </c>
       <c r="H135">
         <f t="shared" si="10"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44227</v>
       </c>
@@ -4180,7 +4196,7 @@
       </c>
       <c r="F136">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G136">
         <f t="shared" si="13"/>
@@ -4188,10 +4204,10 @@
       </c>
       <c r="H136">
         <f t="shared" ref="H136:H199" si="15">G136-F136</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44227</v>
       </c>
@@ -4208,7 +4224,7 @@
       </c>
       <c r="F137">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G137">
         <f t="shared" si="13"/>
@@ -4216,10 +4232,10 @@
       </c>
       <c r="H137">
         <f t="shared" si="15"/>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44227</v>
       </c>
@@ -4236,7 +4252,7 @@
       </c>
       <c r="F138">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G138">
         <f t="shared" si="13"/>
@@ -4244,10 +4260,10 @@
       </c>
       <c r="H138">
         <f t="shared" si="15"/>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44227</v>
       </c>
@@ -4264,7 +4280,7 @@
       </c>
       <c r="F139">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G139">
         <f t="shared" si="13"/>
@@ -4272,10 +4288,10 @@
       </c>
       <c r="H139">
         <f t="shared" si="15"/>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44227</v>
       </c>
@@ -4292,7 +4308,7 @@
       </c>
       <c r="F140">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G140">
         <f t="shared" si="13"/>
@@ -4300,10 +4316,10 @@
       </c>
       <c r="H140">
         <f t="shared" si="15"/>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44227</v>
       </c>
@@ -4320,7 +4336,7 @@
       </c>
       <c r="F141">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G141">
         <f t="shared" si="13"/>
@@ -4328,10 +4344,10 @@
       </c>
       <c r="H141">
         <f t="shared" si="15"/>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44227</v>
       </c>
@@ -4348,7 +4364,7 @@
       </c>
       <c r="F142">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G142">
         <f t="shared" si="13"/>
@@ -4356,10 +4372,10 @@
       </c>
       <c r="H142">
         <f t="shared" si="15"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44227</v>
       </c>
@@ -4376,7 +4392,7 @@
       </c>
       <c r="F143">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G143">
         <f t="shared" si="13"/>
@@ -4384,10 +4400,10 @@
       </c>
       <c r="H143">
         <f t="shared" si="15"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44227</v>
       </c>
@@ -4404,7 +4420,7 @@
       </c>
       <c r="F144">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G144">
         <f t="shared" si="13"/>
@@ -4412,10 +4428,10 @@
       </c>
       <c r="H144">
         <f t="shared" si="15"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44227</v>
       </c>
@@ -4432,7 +4448,7 @@
       </c>
       <c r="F145">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G145">
         <f t="shared" si="13"/>
@@ -4440,10 +4456,10 @@
       </c>
       <c r="H145">
         <f t="shared" si="15"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44227</v>
       </c>
@@ -4460,7 +4476,7 @@
       </c>
       <c r="F146">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G146">
         <f t="shared" si="13"/>
@@ -4468,10 +4484,10 @@
       </c>
       <c r="H146">
         <f t="shared" si="15"/>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44227</v>
       </c>
@@ -4488,7 +4504,7 @@
       </c>
       <c r="F147">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G147">
         <f t="shared" si="13"/>
@@ -4496,10 +4512,10 @@
       </c>
       <c r="H147">
         <f t="shared" si="15"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44227</v>
       </c>
@@ -4516,7 +4532,7 @@
       </c>
       <c r="F148">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G148">
         <f t="shared" si="13"/>
@@ -4524,10 +4540,10 @@
       </c>
       <c r="H148">
         <f t="shared" si="15"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44227</v>
       </c>
@@ -4544,7 +4560,7 @@
       </c>
       <c r="F149">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G149">
         <f t="shared" si="13"/>
@@ -4552,10 +4568,10 @@
       </c>
       <c r="H149">
         <f t="shared" si="15"/>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44227</v>
       </c>
@@ -4572,7 +4588,7 @@
       </c>
       <c r="F150">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G150">
         <f t="shared" si="13"/>
@@ -4580,10 +4596,10 @@
       </c>
       <c r="H150">
         <f t="shared" si="15"/>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44227</v>
       </c>
@@ -4600,7 +4616,7 @@
       </c>
       <c r="F151">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G151">
         <f t="shared" si="13"/>
@@ -4608,10 +4624,10 @@
       </c>
       <c r="H151">
         <f t="shared" si="15"/>
-        <v>291</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44227</v>
       </c>
@@ -4628,7 +4644,7 @@
       </c>
       <c r="F152">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G152">
         <f t="shared" si="13"/>
@@ -4636,10 +4652,10 @@
       </c>
       <c r="H152">
         <f t="shared" si="15"/>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44227</v>
       </c>
@@ -4656,7 +4672,7 @@
       </c>
       <c r="F153">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G153">
         <f t="shared" si="13"/>
@@ -4664,10 +4680,10 @@
       </c>
       <c r="H153">
         <f t="shared" si="15"/>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44227</v>
       </c>
@@ -4684,7 +4700,7 @@
       </c>
       <c r="F154">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G154">
         <f t="shared" si="13"/>
@@ -4692,10 +4708,10 @@
       </c>
       <c r="H154">
         <f t="shared" si="15"/>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44227</v>
       </c>
@@ -4712,7 +4728,7 @@
       </c>
       <c r="F155">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G155">
         <f t="shared" si="13"/>
@@ -4720,10 +4736,10 @@
       </c>
       <c r="H155">
         <f t="shared" si="15"/>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44227</v>
       </c>
@@ -4740,7 +4756,7 @@
       </c>
       <c r="F156">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G156">
         <f t="shared" si="13"/>
@@ -4748,10 +4764,10 @@
       </c>
       <c r="H156">
         <f t="shared" si="15"/>
-        <v>301</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44227</v>
       </c>
@@ -4768,7 +4784,7 @@
       </c>
       <c r="F157">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G157">
         <f t="shared" si="13"/>
@@ -4776,10 +4792,10 @@
       </c>
       <c r="H157">
         <f t="shared" si="15"/>
-        <v>303</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44227</v>
       </c>
@@ -4796,7 +4812,7 @@
       </c>
       <c r="F158">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G158">
         <f t="shared" si="13"/>
@@ -4804,10 +4820,10 @@
       </c>
       <c r="H158">
         <f t="shared" si="15"/>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44227</v>
       </c>
@@ -4824,7 +4840,7 @@
       </c>
       <c r="F159">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G159">
         <f t="shared" si="13"/>
@@ -4832,10 +4848,10 @@
       </c>
       <c r="H159">
         <f t="shared" si="15"/>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44227</v>
       </c>
@@ -4852,7 +4868,7 @@
       </c>
       <c r="F160">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G160">
         <f t="shared" si="13"/>
@@ -4860,10 +4876,10 @@
       </c>
       <c r="H160">
         <f t="shared" si="15"/>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44227</v>
       </c>
@@ -4880,7 +4896,7 @@
       </c>
       <c r="F161">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G161">
         <f t="shared" si="13"/>
@@ -4888,10 +4904,10 @@
       </c>
       <c r="H161">
         <f t="shared" si="15"/>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44227</v>
       </c>
@@ -4908,7 +4924,7 @@
       </c>
       <c r="F162">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G162">
         <f t="shared" si="13"/>
@@ -4916,10 +4932,10 @@
       </c>
       <c r="H162">
         <f t="shared" si="15"/>
-        <v>313</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44227</v>
       </c>
@@ -4936,7 +4952,7 @@
       </c>
       <c r="F163">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G163">
         <f t="shared" si="13"/>
@@ -4944,10 +4960,10 @@
       </c>
       <c r="H163">
         <f t="shared" si="15"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44227</v>
       </c>
@@ -4964,7 +4980,7 @@
       </c>
       <c r="F164">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G164">
         <f t="shared" si="13"/>
@@ -4972,10 +4988,10 @@
       </c>
       <c r="H164">
         <f t="shared" si="15"/>
-        <v>317</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44227</v>
       </c>
@@ -4992,7 +5008,7 @@
       </c>
       <c r="F165">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G165">
         <f t="shared" si="13"/>
@@ -5000,10 +5016,10 @@
       </c>
       <c r="H165">
         <f t="shared" si="15"/>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44227</v>
       </c>
@@ -5020,7 +5036,7 @@
       </c>
       <c r="F166">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G166">
         <f t="shared" si="13"/>
@@ -5028,10 +5044,10 @@
       </c>
       <c r="H166">
         <f t="shared" si="15"/>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44227</v>
       </c>
@@ -5048,7 +5064,7 @@
       </c>
       <c r="F167">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G167">
         <f t="shared" si="13"/>
@@ -5056,10 +5072,10 @@
       </c>
       <c r="H167">
         <f t="shared" si="15"/>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44227</v>
       </c>
@@ -5076,7 +5092,7 @@
       </c>
       <c r="F168">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G168">
         <f t="shared" si="13"/>
@@ -5084,10 +5100,10 @@
       </c>
       <c r="H168">
         <f t="shared" si="15"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44227</v>
       </c>
@@ -5104,7 +5120,7 @@
       </c>
       <c r="F169">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G169">
         <f t="shared" si="13"/>
@@ -5112,10 +5128,10 @@
       </c>
       <c r="H169">
         <f t="shared" si="15"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44227</v>
       </c>
@@ -5132,7 +5148,7 @@
       </c>
       <c r="F170">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G170">
         <f t="shared" si="13"/>
@@ -5140,10 +5156,10 @@
       </c>
       <c r="H170">
         <f t="shared" si="15"/>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44227</v>
       </c>
@@ -5160,7 +5176,7 @@
       </c>
       <c r="F171">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G171">
         <f t="shared" si="13"/>
@@ -5168,10 +5184,10 @@
       </c>
       <c r="H171">
         <f t="shared" si="15"/>
-        <v>331</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44227</v>
       </c>
@@ -5188,7 +5204,7 @@
       </c>
       <c r="F172">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G172">
         <f t="shared" si="13"/>
@@ -5196,10 +5212,10 @@
       </c>
       <c r="H172">
         <f t="shared" si="15"/>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44227</v>
       </c>
@@ -5216,7 +5232,7 @@
       </c>
       <c r="F173">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G173">
         <f t="shared" si="13"/>
@@ -5224,10 +5240,10 @@
       </c>
       <c r="H173">
         <f t="shared" si="15"/>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44227</v>
       </c>
@@ -5244,7 +5260,7 @@
       </c>
       <c r="F174">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G174">
         <f t="shared" si="13"/>
@@ -5252,10 +5268,10 @@
       </c>
       <c r="H174">
         <f t="shared" si="15"/>
-        <v>337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44227</v>
       </c>
@@ -5272,7 +5288,7 @@
       </c>
       <c r="F175">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G175">
         <f t="shared" si="13"/>
@@ -5280,10 +5296,10 @@
       </c>
       <c r="H175">
         <f t="shared" si="15"/>
-        <v>339</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -5300,7 +5316,7 @@
       </c>
       <c r="F176">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G176">
         <f t="shared" si="13"/>
@@ -5308,10 +5324,10 @@
       </c>
       <c r="H176">
         <f t="shared" si="15"/>
-        <v>341</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44227</v>
       </c>
@@ -5328,7 +5344,7 @@
       </c>
       <c r="F177">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G177">
         <f t="shared" si="13"/>
@@ -5336,10 +5352,10 @@
       </c>
       <c r="H177">
         <f t="shared" si="15"/>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44227</v>
       </c>
@@ -5356,7 +5372,7 @@
       </c>
       <c r="F178">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G178">
         <f t="shared" si="13"/>
@@ -5364,10 +5380,10 @@
       </c>
       <c r="H178">
         <f t="shared" si="15"/>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44227</v>
       </c>
@@ -5384,7 +5400,7 @@
       </c>
       <c r="F179">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G179">
         <f t="shared" si="13"/>
@@ -5392,10 +5408,10 @@
       </c>
       <c r="H179">
         <f t="shared" si="15"/>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44227</v>
       </c>
@@ -5412,7 +5428,7 @@
       </c>
       <c r="F180">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G180">
         <f t="shared" si="13"/>
@@ -5420,10 +5436,10 @@
       </c>
       <c r="H180">
         <f t="shared" si="15"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44227</v>
       </c>
@@ -5440,7 +5456,7 @@
       </c>
       <c r="F181">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G181">
         <f t="shared" si="13"/>
@@ -5448,10 +5464,10 @@
       </c>
       <c r="H181">
         <f t="shared" si="15"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44227</v>
       </c>
@@ -5468,7 +5484,7 @@
       </c>
       <c r="F182">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G182">
         <f t="shared" si="13"/>
@@ -5476,10 +5492,10 @@
       </c>
       <c r="H182">
         <f t="shared" si="15"/>
-        <v>353</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44227</v>
       </c>
@@ -5496,7 +5512,7 @@
       </c>
       <c r="F183">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G183">
         <f t="shared" si="13"/>
@@ -5504,10 +5520,10 @@
       </c>
       <c r="H183">
         <f t="shared" si="15"/>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44227</v>
       </c>
@@ -5524,7 +5540,7 @@
       </c>
       <c r="F184">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G184">
         <f t="shared" si="13"/>
@@ -5532,10 +5548,10 @@
       </c>
       <c r="H184">
         <f t="shared" si="15"/>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44227</v>
       </c>
@@ -5552,7 +5568,7 @@
       </c>
       <c r="F185">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G185">
         <f t="shared" si="13"/>
@@ -5560,10 +5576,10 @@
       </c>
       <c r="H185">
         <f t="shared" si="15"/>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44227</v>
       </c>
@@ -5580,7 +5596,7 @@
       </c>
       <c r="F186">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G186">
         <f t="shared" si="13"/>
@@ -5588,10 +5604,10 @@
       </c>
       <c r="H186">
         <f t="shared" si="15"/>
-        <v>361</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44227</v>
       </c>
@@ -5608,7 +5624,7 @@
       </c>
       <c r="F187">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G187">
         <f t="shared" si="13"/>
@@ -5616,10 +5632,10 @@
       </c>
       <c r="H187">
         <f t="shared" si="15"/>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44227</v>
       </c>
@@ -5636,7 +5652,7 @@
       </c>
       <c r="F188">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G188">
         <f t="shared" si="13"/>
@@ -5644,10 +5660,10 @@
       </c>
       <c r="H188">
         <f t="shared" si="15"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44227</v>
       </c>
@@ -5664,7 +5680,7 @@
       </c>
       <c r="F189">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G189">
         <f t="shared" si="13"/>
@@ -5672,10 +5688,10 @@
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44227</v>
       </c>
@@ -5692,7 +5708,7 @@
       </c>
       <c r="F190">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G190">
         <f t="shared" si="13"/>
@@ -5700,10 +5716,10 @@
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
-        <v>369</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44227</v>
       </c>
@@ -5720,7 +5736,7 @@
       </c>
       <c r="F191">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G191">
         <f t="shared" si="13"/>
@@ -5728,10 +5744,10 @@
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
-        <v>371</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44227</v>
       </c>
@@ -5748,7 +5764,7 @@
       </c>
       <c r="F192">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G192">
         <f t="shared" si="13"/>
@@ -5756,10 +5772,10 @@
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44227</v>
       </c>
@@ -5776,7 +5792,7 @@
       </c>
       <c r="F193">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G193">
         <f t="shared" si="13"/>
@@ -5784,10 +5800,10 @@
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44227</v>
       </c>
@@ -5804,7 +5820,7 @@
       </c>
       <c r="F194">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G194">
         <f t="shared" si="13"/>
@@ -5812,10 +5828,10 @@
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
-        <v>377</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44227</v>
       </c>
@@ -5832,7 +5848,7 @@
       </c>
       <c r="F195">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G195">
         <f t="shared" ref="G195:G258" si="18">536-E195</f>
@@ -5840,10 +5856,10 @@
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44227</v>
       </c>
@@ -5860,7 +5876,7 @@
       </c>
       <c r="F196">
         <f t="shared" ref="F196:F259" si="19">C196+F195</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G196">
         <f t="shared" si="18"/>
@@ -5868,10 +5884,10 @@
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
-        <v>381</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44227</v>
       </c>
@@ -5888,7 +5904,7 @@
       </c>
       <c r="F197">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G197">
         <f t="shared" si="18"/>
@@ -5896,10 +5912,10 @@
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44227</v>
       </c>
@@ -5916,7 +5932,7 @@
       </c>
       <c r="F198">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G198">
         <f t="shared" si="18"/>
@@ -5924,10 +5940,10 @@
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
-        <v>385</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44227</v>
       </c>
@@ -5944,7 +5960,7 @@
       </c>
       <c r="F199">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G199">
         <f t="shared" si="18"/>
@@ -5952,10 +5968,10 @@
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
-        <v>387</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44227</v>
       </c>
@@ -5972,7 +5988,7 @@
       </c>
       <c r="F200">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G200">
         <f t="shared" si="18"/>
@@ -5980,10 +5996,10 @@
       </c>
       <c r="H200">
         <f t="shared" ref="H200:H263" si="20">G200-F200</f>
-        <v>389</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44227</v>
       </c>
@@ -6000,7 +6016,7 @@
       </c>
       <c r="F201">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G201">
         <f t="shared" si="18"/>
@@ -6008,10 +6024,10 @@
       </c>
       <c r="H201">
         <f t="shared" si="20"/>
-        <v>391</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44227</v>
       </c>
@@ -6028,7 +6044,7 @@
       </c>
       <c r="F202">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G202">
         <f t="shared" si="18"/>
@@ -6036,10 +6052,10 @@
       </c>
       <c r="H202">
         <f t="shared" si="20"/>
-        <v>393</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44227</v>
       </c>
@@ -6056,7 +6072,7 @@
       </c>
       <c r="F203">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G203">
         <f t="shared" si="18"/>
@@ -6064,10 +6080,10 @@
       </c>
       <c r="H203">
         <f t="shared" si="20"/>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44227</v>
       </c>
@@ -6084,7 +6100,7 @@
       </c>
       <c r="F204">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G204">
         <f t="shared" si="18"/>
@@ -6092,10 +6108,10 @@
       </c>
       <c r="H204">
         <f t="shared" si="20"/>
-        <v>397</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44227</v>
       </c>
@@ -6112,7 +6128,7 @@
       </c>
       <c r="F205">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G205">
         <f t="shared" si="18"/>
@@ -6120,10 +6136,10 @@
       </c>
       <c r="H205">
         <f t="shared" si="20"/>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44227</v>
       </c>
@@ -6140,7 +6156,7 @@
       </c>
       <c r="F206">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G206">
         <f t="shared" si="18"/>
@@ -6148,10 +6164,10 @@
       </c>
       <c r="H206">
         <f t="shared" si="20"/>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44227</v>
       </c>
@@ -6168,7 +6184,7 @@
       </c>
       <c r="F207">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G207">
         <f t="shared" si="18"/>
@@ -6176,10 +6192,10 @@
       </c>
       <c r="H207">
         <f t="shared" si="20"/>
-        <v>403</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44227</v>
       </c>
@@ -6196,7 +6212,7 @@
       </c>
       <c r="F208">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G208">
         <f t="shared" si="18"/>
@@ -6204,10 +6220,10 @@
       </c>
       <c r="H208">
         <f t="shared" si="20"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44227</v>
       </c>
@@ -6224,7 +6240,7 @@
       </c>
       <c r="F209">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G209">
         <f t="shared" si="18"/>
@@ -6232,10 +6248,10 @@
       </c>
       <c r="H209">
         <f t="shared" si="20"/>
-        <v>407</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44227</v>
       </c>
@@ -6252,7 +6268,7 @@
       </c>
       <c r="F210">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G210">
         <f t="shared" si="18"/>
@@ -6260,10 +6276,10 @@
       </c>
       <c r="H210">
         <f t="shared" si="20"/>
-        <v>409</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44227</v>
       </c>
@@ -6280,7 +6296,7 @@
       </c>
       <c r="F211">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G211">
         <f t="shared" si="18"/>
@@ -6288,10 +6304,10 @@
       </c>
       <c r="H211">
         <f t="shared" si="20"/>
-        <v>411</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44227</v>
       </c>
@@ -6308,7 +6324,7 @@
       </c>
       <c r="F212">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G212">
         <f t="shared" si="18"/>
@@ -6316,10 +6332,10 @@
       </c>
       <c r="H212">
         <f t="shared" si="20"/>
-        <v>413</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44227</v>
       </c>
@@ -6336,7 +6352,7 @@
       </c>
       <c r="F213">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G213">
         <f t="shared" si="18"/>
@@ -6344,10 +6360,10 @@
       </c>
       <c r="H213">
         <f t="shared" si="20"/>
-        <v>415</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44227</v>
       </c>
@@ -6364,7 +6380,7 @@
       </c>
       <c r="F214">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G214">
         <f t="shared" si="18"/>
@@ -6372,10 +6388,10 @@
       </c>
       <c r="H214">
         <f t="shared" si="20"/>
-        <v>417</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44227</v>
       </c>
@@ -6392,7 +6408,7 @@
       </c>
       <c r="F215">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G215">
         <f t="shared" si="18"/>
@@ -6400,10 +6416,10 @@
       </c>
       <c r="H215">
         <f t="shared" si="20"/>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44227</v>
       </c>
@@ -6420,7 +6436,7 @@
       </c>
       <c r="F216">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G216">
         <f t="shared" si="18"/>
@@ -6428,10 +6444,10 @@
       </c>
       <c r="H216">
         <f t="shared" si="20"/>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44227</v>
       </c>
@@ -6448,7 +6464,7 @@
       </c>
       <c r="F217">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G217">
         <f t="shared" si="18"/>
@@ -6456,10 +6472,10 @@
       </c>
       <c r="H217">
         <f t="shared" si="20"/>
-        <v>423</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44227</v>
       </c>
@@ -6476,7 +6492,7 @@
       </c>
       <c r="F218">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G218">
         <f t="shared" si="18"/>
@@ -6484,10 +6500,10 @@
       </c>
       <c r="H218">
         <f t="shared" si="20"/>
-        <v>425</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44227</v>
       </c>
@@ -6504,7 +6520,7 @@
       </c>
       <c r="F219">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G219">
         <f t="shared" si="18"/>
@@ -6512,10 +6528,10 @@
       </c>
       <c r="H219">
         <f t="shared" si="20"/>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44227</v>
       </c>
@@ -6532,7 +6548,7 @@
       </c>
       <c r="F220">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G220">
         <f t="shared" si="18"/>
@@ -6540,10 +6556,10 @@
       </c>
       <c r="H220">
         <f t="shared" si="20"/>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44227</v>
       </c>
@@ -6560,7 +6576,7 @@
       </c>
       <c r="F221">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G221">
         <f t="shared" si="18"/>
@@ -6568,10 +6584,10 @@
       </c>
       <c r="H221">
         <f t="shared" si="20"/>
-        <v>431</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44227</v>
       </c>
@@ -6588,7 +6604,7 @@
       </c>
       <c r="F222">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G222">
         <f t="shared" si="18"/>
@@ -6596,10 +6612,10 @@
       </c>
       <c r="H222">
         <f t="shared" si="20"/>
-        <v>433</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44227</v>
       </c>
@@ -6616,7 +6632,7 @@
       </c>
       <c r="F223">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G223">
         <f t="shared" si="18"/>
@@ -6624,10 +6640,10 @@
       </c>
       <c r="H223">
         <f t="shared" si="20"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44227</v>
       </c>
@@ -6644,7 +6660,7 @@
       </c>
       <c r="F224">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G224">
         <f t="shared" si="18"/>
@@ -6652,10 +6668,10 @@
       </c>
       <c r="H224">
         <f t="shared" si="20"/>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44227</v>
       </c>
@@ -6672,7 +6688,7 @@
       </c>
       <c r="F225">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G225">
         <f t="shared" si="18"/>
@@ -6680,10 +6696,10 @@
       </c>
       <c r="H225">
         <f t="shared" si="20"/>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44227</v>
       </c>
@@ -6700,7 +6716,7 @@
       </c>
       <c r="F226">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G226">
         <f t="shared" si="18"/>
@@ -6708,10 +6724,10 @@
       </c>
       <c r="H226">
         <f t="shared" si="20"/>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44227</v>
       </c>
@@ -6728,7 +6744,7 @@
       </c>
       <c r="F227">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G227">
         <f t="shared" si="18"/>
@@ -6736,10 +6752,10 @@
       </c>
       <c r="H227">
         <f t="shared" si="20"/>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44227</v>
       </c>
@@ -6756,7 +6772,7 @@
       </c>
       <c r="F228">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G228">
         <f t="shared" si="18"/>
@@ -6764,10 +6780,10 @@
       </c>
       <c r="H228">
         <f t="shared" si="20"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44227</v>
       </c>
@@ -6784,7 +6800,7 @@
       </c>
       <c r="F229">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G229">
         <f t="shared" si="18"/>
@@ -6792,10 +6808,10 @@
       </c>
       <c r="H229">
         <f t="shared" si="20"/>
-        <v>447</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44227</v>
       </c>
@@ -6812,7 +6828,7 @@
       </c>
       <c r="F230">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G230">
         <f t="shared" si="18"/>
@@ -6820,10 +6836,10 @@
       </c>
       <c r="H230">
         <f t="shared" si="20"/>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44227</v>
       </c>
@@ -6840,7 +6856,7 @@
       </c>
       <c r="F231">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G231">
         <f t="shared" si="18"/>
@@ -6848,10 +6864,10 @@
       </c>
       <c r="H231">
         <f t="shared" si="20"/>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44227</v>
       </c>
@@ -6868,7 +6884,7 @@
       </c>
       <c r="F232">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G232">
         <f t="shared" si="18"/>
@@ -6876,10 +6892,10 @@
       </c>
       <c r="H232">
         <f t="shared" si="20"/>
-        <v>453</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44227</v>
       </c>
@@ -6896,7 +6912,7 @@
       </c>
       <c r="F233">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G233">
         <f t="shared" si="18"/>
@@ -6904,10 +6920,10 @@
       </c>
       <c r="H233">
         <f t="shared" si="20"/>
-        <v>455</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44227</v>
       </c>
@@ -6924,7 +6940,7 @@
       </c>
       <c r="F234">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G234">
         <f t="shared" si="18"/>
@@ -6932,10 +6948,10 @@
       </c>
       <c r="H234">
         <f t="shared" si="20"/>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44227</v>
       </c>
@@ -6952,7 +6968,7 @@
       </c>
       <c r="F235">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G235">
         <f t="shared" si="18"/>
@@ -6960,10 +6976,10 @@
       </c>
       <c r="H235">
         <f t="shared" si="20"/>
-        <v>459</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44227</v>
       </c>
@@ -6980,7 +6996,7 @@
       </c>
       <c r="F236">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G236">
         <f t="shared" si="18"/>
@@ -6988,10 +7004,10 @@
       </c>
       <c r="H236">
         <f t="shared" si="20"/>
-        <v>461</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44227</v>
       </c>
@@ -7008,7 +7024,7 @@
       </c>
       <c r="F237">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G237">
         <f t="shared" si="18"/>
@@ -7016,10 +7032,10 @@
       </c>
       <c r="H237">
         <f t="shared" si="20"/>
-        <v>463</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44227</v>
       </c>
@@ -7036,7 +7052,7 @@
       </c>
       <c r="F238">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G238">
         <f t="shared" si="18"/>
@@ -7044,10 +7060,10 @@
       </c>
       <c r="H238">
         <f t="shared" si="20"/>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44227</v>
       </c>
@@ -7064,7 +7080,7 @@
       </c>
       <c r="F239">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G239">
         <f t="shared" si="18"/>
@@ -7072,10 +7088,10 @@
       </c>
       <c r="H239">
         <f t="shared" si="20"/>
-        <v>467</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44227</v>
       </c>
@@ -7092,7 +7108,7 @@
       </c>
       <c r="F240">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G240">
         <f t="shared" si="18"/>
@@ -7100,10 +7116,10 @@
       </c>
       <c r="H240">
         <f t="shared" si="20"/>
-        <v>469</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44227</v>
       </c>
@@ -7120,7 +7136,7 @@
       </c>
       <c r="F241">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G241">
         <f t="shared" si="18"/>
@@ -7128,10 +7144,10 @@
       </c>
       <c r="H241">
         <f t="shared" si="20"/>
-        <v>471</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44227</v>
       </c>
@@ -7148,7 +7164,7 @@
       </c>
       <c r="F242">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G242">
         <f t="shared" si="18"/>
@@ -7156,10 +7172,10 @@
       </c>
       <c r="H242">
         <f t="shared" si="20"/>
-        <v>473</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44227</v>
       </c>
@@ -7176,7 +7192,7 @@
       </c>
       <c r="F243">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G243">
         <f t="shared" si="18"/>
@@ -7184,10 +7200,10 @@
       </c>
       <c r="H243">
         <f t="shared" si="20"/>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44227</v>
       </c>
@@ -7204,7 +7220,7 @@
       </c>
       <c r="F244">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G244">
         <f t="shared" si="18"/>
@@ -7212,10 +7228,10 @@
       </c>
       <c r="H244">
         <f t="shared" si="20"/>
-        <v>477</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44227</v>
       </c>
@@ -7232,7 +7248,7 @@
       </c>
       <c r="F245">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G245">
         <f t="shared" si="18"/>
@@ -7240,10 +7256,10 @@
       </c>
       <c r="H245">
         <f t="shared" si="20"/>
-        <v>479</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44227</v>
       </c>
@@ -7260,7 +7276,7 @@
       </c>
       <c r="F246">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G246">
         <f t="shared" si="18"/>
@@ -7268,10 +7284,10 @@
       </c>
       <c r="H246">
         <f t="shared" si="20"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44227</v>
       </c>
@@ -7288,7 +7304,7 @@
       </c>
       <c r="F247">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G247">
         <f t="shared" si="18"/>
@@ -7296,10 +7312,10 @@
       </c>
       <c r="H247">
         <f t="shared" si="20"/>
-        <v>483</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44227</v>
       </c>
@@ -7316,7 +7332,7 @@
       </c>
       <c r="F248">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G248">
         <f t="shared" si="18"/>
@@ -7324,10 +7340,10 @@
       </c>
       <c r="H248">
         <f t="shared" si="20"/>
-        <v>485</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44227</v>
       </c>
@@ -7344,7 +7360,7 @@
       </c>
       <c r="F249">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G249">
         <f t="shared" si="18"/>
@@ -7352,10 +7368,10 @@
       </c>
       <c r="H249">
         <f t="shared" si="20"/>
-        <v>487</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44227</v>
       </c>
@@ -7372,7 +7388,7 @@
       </c>
       <c r="F250">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G250">
         <f t="shared" si="18"/>
@@ -7380,10 +7396,10 @@
       </c>
       <c r="H250">
         <f t="shared" si="20"/>
-        <v>489</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44227</v>
       </c>
@@ -7400,7 +7416,7 @@
       </c>
       <c r="F251">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G251">
         <f t="shared" si="18"/>
@@ -7408,10 +7424,10 @@
       </c>
       <c r="H251">
         <f t="shared" si="20"/>
-        <v>491</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44227</v>
       </c>
@@ -7428,7 +7444,7 @@
       </c>
       <c r="F252">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G252">
         <f t="shared" si="18"/>
@@ -7436,10 +7452,10 @@
       </c>
       <c r="H252">
         <f t="shared" si="20"/>
-        <v>493</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44227</v>
       </c>
@@ -7456,7 +7472,7 @@
       </c>
       <c r="F253">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G253">
         <f t="shared" si="18"/>
@@ -7464,10 +7480,10 @@
       </c>
       <c r="H253">
         <f t="shared" si="20"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44227</v>
       </c>
@@ -7484,7 +7500,7 @@
       </c>
       <c r="F254">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G254">
         <f t="shared" si="18"/>
@@ -7492,10 +7508,10 @@
       </c>
       <c r="H254">
         <f t="shared" si="20"/>
-        <v>497</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44227</v>
       </c>
@@ -7512,7 +7528,7 @@
       </c>
       <c r="F255">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G255">
         <f t="shared" si="18"/>
@@ -7520,10 +7536,10 @@
       </c>
       <c r="H255">
         <f t="shared" si="20"/>
-        <v>499</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44227</v>
       </c>
@@ -7540,7 +7556,7 @@
       </c>
       <c r="F256">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G256">
         <f t="shared" si="18"/>
@@ -7548,10 +7564,10 @@
       </c>
       <c r="H256">
         <f t="shared" si="20"/>
-        <v>501</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44227</v>
       </c>
@@ -7568,7 +7584,7 @@
       </c>
       <c r="F257">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G257">
         <f t="shared" si="18"/>
@@ -7576,10 +7592,10 @@
       </c>
       <c r="H257">
         <f t="shared" si="20"/>
-        <v>503</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44227</v>
       </c>
@@ -7596,7 +7612,7 @@
       </c>
       <c r="F258">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G258">
         <f t="shared" si="18"/>
@@ -7604,10 +7620,10 @@
       </c>
       <c r="H258">
         <f t="shared" si="20"/>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44227</v>
       </c>
@@ -7624,7 +7640,7 @@
       </c>
       <c r="F259">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G259">
         <f t="shared" ref="G259:G269" si="23">536-E259</f>
@@ -7632,10 +7648,10 @@
       </c>
       <c r="H259">
         <f t="shared" si="20"/>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44227</v>
       </c>
@@ -7652,7 +7668,7 @@
       </c>
       <c r="F260">
         <f t="shared" ref="F260:F269" si="24">C260+F259</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G260">
         <f t="shared" si="23"/>
@@ -7660,10 +7676,10 @@
       </c>
       <c r="H260">
         <f t="shared" si="20"/>
-        <v>509</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44227</v>
       </c>
@@ -7680,7 +7696,7 @@
       </c>
       <c r="F261">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G261">
         <f t="shared" si="23"/>
@@ -7688,10 +7704,10 @@
       </c>
       <c r="H261">
         <f t="shared" si="20"/>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44227</v>
       </c>
@@ -7708,7 +7724,7 @@
       </c>
       <c r="F262">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G262">
         <f t="shared" si="23"/>
@@ -7716,10 +7732,10 @@
       </c>
       <c r="H262">
         <f t="shared" si="20"/>
-        <v>513</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44227</v>
       </c>
@@ -7736,7 +7752,7 @@
       </c>
       <c r="F263">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G263">
         <f t="shared" si="23"/>
@@ -7744,10 +7760,10 @@
       </c>
       <c r="H263">
         <f t="shared" si="20"/>
-        <v>515</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44227</v>
       </c>
@@ -7764,7 +7780,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G264">
         <f t="shared" si="23"/>
@@ -7772,10 +7788,10 @@
       </c>
       <c r="H264">
         <f t="shared" ref="H264:H269" si="25">G264-F264</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44227</v>
       </c>
@@ -7792,7 +7808,7 @@
       </c>
       <c r="F265">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G265">
         <f t="shared" si="23"/>
@@ -7800,10 +7816,10 @@
       </c>
       <c r="H265">
         <f t="shared" si="25"/>
-        <v>519</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44227</v>
       </c>
@@ -7820,7 +7836,7 @@
       </c>
       <c r="F266">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G266">
         <f t="shared" si="23"/>
@@ -7828,10 +7844,10 @@
       </c>
       <c r="H266">
         <f t="shared" si="25"/>
-        <v>521</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44227</v>
       </c>
@@ -7848,7 +7864,7 @@
       </c>
       <c r="F267">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G267">
         <f t="shared" si="23"/>
@@ -7856,10 +7872,10 @@
       </c>
       <c r="H267">
         <f t="shared" si="25"/>
-        <v>523</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44227</v>
       </c>
@@ -7876,7 +7892,7 @@
       </c>
       <c r="F268">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G268">
         <f t="shared" si="23"/>
@@ -7884,10 +7900,10 @@
       </c>
       <c r="H268">
         <f t="shared" si="25"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44227</v>
       </c>
@@ -7904,7 +7920,7 @@
       </c>
       <c r="F269">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G269">
         <f t="shared" si="23"/>
@@ -7912,7 +7928,7 @@
       </c>
       <c r="H269">
         <f t="shared" si="25"/>
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29E84500-5227-4771-9A5A-0663676F0862}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,24 +363,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44227</v>
       </c>
@@ -428,7 +427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44227</v>
       </c>
@@ -459,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44227</v>
       </c>
@@ -490,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44227</v>
       </c>
@@ -521,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44227</v>
       </c>
@@ -552,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44227</v>
       </c>
@@ -583,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44227</v>
       </c>
@@ -614,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44227</v>
       </c>
@@ -645,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44227</v>
       </c>
@@ -676,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44227</v>
       </c>
@@ -707,12 +706,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44227</v>
       </c>
       <c r="B12" s="1">
         <v>43970</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -724,7 +726,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -732,15 +734,18 @@
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44227</v>
       </c>
       <c r="B13" s="1">
         <v>43971</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -752,7 +757,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -760,15 +765,18 @@
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44227</v>
       </c>
       <c r="B14" s="1">
         <v>43972</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -780,7 +788,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -788,10 +796,10 @@
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44227</v>
       </c>
@@ -808,7 +816,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -816,10 +824,10 @@
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44227</v>
       </c>
@@ -836,7 +844,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -844,10 +852,10 @@
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44227</v>
       </c>
@@ -864,7 +872,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -872,10 +880,10 @@
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44227</v>
       </c>
@@ -892,7 +900,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -900,10 +908,10 @@
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44227</v>
       </c>
@@ -920,7 +928,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -928,10 +936,10 @@
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44227</v>
       </c>
@@ -948,7 +956,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -956,10 +964,10 @@
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44227</v>
       </c>
@@ -976,7 +984,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -984,10 +992,10 @@
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44227</v>
       </c>
@@ -1004,7 +1012,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -1012,10 +1020,10 @@
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44227</v>
       </c>
@@ -1032,7 +1040,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -1040,10 +1048,10 @@
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44227</v>
       </c>
@@ -1060,7 +1068,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -1068,10 +1076,10 @@
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44227</v>
       </c>
@@ -1088,7 +1096,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -1096,10 +1104,10 @@
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44227</v>
       </c>
@@ -1116,7 +1124,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -1124,10 +1132,10 @@
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44227</v>
       </c>
@@ -1144,7 +1152,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -1152,10 +1160,10 @@
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44227</v>
       </c>
@@ -1172,7 +1180,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
@@ -1180,10 +1188,10 @@
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44227</v>
       </c>
@@ -1200,7 +1208,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
@@ -1208,10 +1216,10 @@
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44227</v>
       </c>
@@ -1228,7 +1236,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
@@ -1236,10 +1244,10 @@
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44227</v>
       </c>
@@ -1256,7 +1264,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
@@ -1264,10 +1272,10 @@
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44227</v>
       </c>
@@ -1284,7 +1292,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
@@ -1292,10 +1300,10 @@
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44227</v>
       </c>
@@ -1312,7 +1320,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
@@ -1320,10 +1328,10 @@
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44227</v>
       </c>
@@ -1340,7 +1348,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
@@ -1348,10 +1356,10 @@
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44227</v>
       </c>
@@ -1368,7 +1376,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
@@ -1376,10 +1384,10 @@
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44227</v>
       </c>
@@ -1396,7 +1404,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
@@ -1404,10 +1412,10 @@
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44227</v>
       </c>
@@ -1424,7 +1432,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
@@ -1432,10 +1440,10 @@
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44227</v>
       </c>
@@ -1452,7 +1460,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
@@ -1460,10 +1468,10 @@
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44227</v>
       </c>
@@ -1480,7 +1488,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
@@ -1488,10 +1496,10 @@
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44227</v>
       </c>
@@ -1508,7 +1516,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
@@ -1516,10 +1524,10 @@
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44227</v>
       </c>
@@ -1536,7 +1544,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
@@ -1544,10 +1552,10 @@
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44227</v>
       </c>
@@ -1564,7 +1572,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
@@ -1572,10 +1580,10 @@
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44227</v>
       </c>
@@ -1592,7 +1600,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
@@ -1600,10 +1608,10 @@
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44227</v>
       </c>
@@ -1620,7 +1628,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
@@ -1628,10 +1636,10 @@
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44227</v>
       </c>
@@ -1648,7 +1656,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
@@ -1656,10 +1664,10 @@
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44227</v>
       </c>
@@ -1676,7 +1684,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
@@ -1684,10 +1692,10 @@
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44227</v>
       </c>
@@ -1704,7 +1712,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
@@ -1712,10 +1720,10 @@
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44227</v>
       </c>
@@ -1732,7 +1740,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
@@ -1740,10 +1748,10 @@
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44227</v>
       </c>
@@ -1760,7 +1768,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
@@ -1768,10 +1776,10 @@
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44227</v>
       </c>
@@ -1788,7 +1796,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
@@ -1796,10 +1804,10 @@
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44227</v>
       </c>
@@ -1816,7 +1824,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
@@ -1824,10 +1832,10 @@
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44227</v>
       </c>
@@ -1844,7 +1852,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
@@ -1852,10 +1860,10 @@
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44227</v>
       </c>
@@ -1872,7 +1880,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
@@ -1880,10 +1888,10 @@
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44227</v>
       </c>
@@ -1900,7 +1908,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
@@ -1908,10 +1916,10 @@
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44227</v>
       </c>
@@ -1928,7 +1936,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
@@ -1936,10 +1944,10 @@
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44227</v>
       </c>
@@ -1956,7 +1964,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
@@ -1964,10 +1972,10 @@
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44227</v>
       </c>
@@ -1984,7 +1992,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
@@ -1992,10 +2000,10 @@
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44227</v>
       </c>
@@ -2012,7 +2020,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
@@ -2020,10 +2028,10 @@
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44227</v>
       </c>
@@ -2040,7 +2048,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
@@ -2048,10 +2056,10 @@
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44227</v>
       </c>
@@ -2068,7 +2076,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
@@ -2076,10 +2084,10 @@
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44227</v>
       </c>
@@ -2096,7 +2104,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
@@ -2104,10 +2112,10 @@
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44227</v>
       </c>
@@ -2124,7 +2132,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
@@ -2132,10 +2140,10 @@
       </c>
       <c r="H62">
         <f t="shared" si="5"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44227</v>
       </c>
@@ -2152,7 +2160,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
@@ -2160,10 +2168,10 @@
       </c>
       <c r="H63">
         <f t="shared" si="5"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44227</v>
       </c>
@@ -2180,7 +2188,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
@@ -2188,10 +2196,10 @@
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44227</v>
       </c>
@@ -2208,7 +2216,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
@@ -2216,10 +2224,10 @@
       </c>
       <c r="H65">
         <f t="shared" si="5"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44227</v>
       </c>
@@ -2236,7 +2244,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
@@ -2244,10 +2252,10 @@
       </c>
       <c r="H66">
         <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44227</v>
       </c>
@@ -2264,7 +2272,7 @@
       </c>
       <c r="F67">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G130" si="8">536-E67</f>
@@ -2272,10 +2280,10 @@
       </c>
       <c r="H67">
         <f t="shared" si="5"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44227</v>
       </c>
@@ -2292,7 +2300,7 @@
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F131" si="9">C68+F67</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G68">
         <f t="shared" si="8"/>
@@ -2300,10 +2308,10 @@
       </c>
       <c r="H68">
         <f t="shared" si="5"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44227</v>
       </c>
@@ -2320,7 +2328,7 @@
       </c>
       <c r="F69">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G69">
         <f t="shared" si="8"/>
@@ -2328,10 +2336,10 @@
       </c>
       <c r="H69">
         <f t="shared" si="5"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44227</v>
       </c>
@@ -2348,7 +2356,7 @@
       </c>
       <c r="F70">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G70">
         <f t="shared" si="8"/>
@@ -2356,10 +2364,10 @@
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44227</v>
       </c>
@@ -2376,7 +2384,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G71">
         <f t="shared" si="8"/>
@@ -2384,10 +2392,10 @@
       </c>
       <c r="H71">
         <f t="shared" si="5"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44227</v>
       </c>
@@ -2404,7 +2412,7 @@
       </c>
       <c r="F72">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G72">
         <f t="shared" si="8"/>
@@ -2412,10 +2420,10 @@
       </c>
       <c r="H72">
         <f t="shared" ref="H72:H135" si="10">G72-F72</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44227</v>
       </c>
@@ -2432,7 +2440,7 @@
       </c>
       <c r="F73">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G73">
         <f t="shared" si="8"/>
@@ -2440,10 +2448,10 @@
       </c>
       <c r="H73">
         <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44227</v>
       </c>
@@ -2460,7 +2468,7 @@
       </c>
       <c r="F74">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G74">
         <f t="shared" si="8"/>
@@ -2468,10 +2476,10 @@
       </c>
       <c r="H74">
         <f t="shared" si="10"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44227</v>
       </c>
@@ -2488,7 +2496,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G75">
         <f t="shared" si="8"/>
@@ -2496,10 +2504,10 @@
       </c>
       <c r="H75">
         <f t="shared" si="10"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44227</v>
       </c>
@@ -2516,7 +2524,7 @@
       </c>
       <c r="F76">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G76">
         <f t="shared" si="8"/>
@@ -2524,10 +2532,10 @@
       </c>
       <c r="H76">
         <f t="shared" si="10"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44227</v>
       </c>
@@ -2544,7 +2552,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G77">
         <f t="shared" si="8"/>
@@ -2552,10 +2560,10 @@
       </c>
       <c r="H77">
         <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44227</v>
       </c>
@@ -2572,7 +2580,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G78">
         <f t="shared" si="8"/>
@@ -2580,10 +2588,10 @@
       </c>
       <c r="H78">
         <f t="shared" si="10"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44227</v>
       </c>
@@ -2600,7 +2608,7 @@
       </c>
       <c r="F79">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G79">
         <f t="shared" si="8"/>
@@ -2608,10 +2616,10 @@
       </c>
       <c r="H79">
         <f t="shared" si="10"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44227</v>
       </c>
@@ -2628,7 +2636,7 @@
       </c>
       <c r="F80">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G80">
         <f t="shared" si="8"/>
@@ -2636,10 +2644,10 @@
       </c>
       <c r="H80">
         <f t="shared" si="10"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44227</v>
       </c>
@@ -2656,7 +2664,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G81">
         <f t="shared" si="8"/>
@@ -2664,10 +2672,10 @@
       </c>
       <c r="H81">
         <f t="shared" si="10"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44227</v>
       </c>
@@ -2684,7 +2692,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G82">
         <f t="shared" si="8"/>
@@ -2692,10 +2700,10 @@
       </c>
       <c r="H82">
         <f t="shared" si="10"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44227</v>
       </c>
@@ -2712,7 +2720,7 @@
       </c>
       <c r="F83">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G83">
         <f t="shared" si="8"/>
@@ -2720,10 +2728,10 @@
       </c>
       <c r="H83">
         <f t="shared" si="10"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44227</v>
       </c>
@@ -2740,7 +2748,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G84">
         <f t="shared" si="8"/>
@@ -2748,10 +2756,10 @@
       </c>
       <c r="H84">
         <f t="shared" si="10"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44227</v>
       </c>
@@ -2768,7 +2776,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G85">
         <f t="shared" si="8"/>
@@ -2776,10 +2784,10 @@
       </c>
       <c r="H85">
         <f t="shared" si="10"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44227</v>
       </c>
@@ -2796,7 +2804,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G86">
         <f t="shared" si="8"/>
@@ -2804,10 +2812,10 @@
       </c>
       <c r="H86">
         <f t="shared" si="10"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44227</v>
       </c>
@@ -2824,7 +2832,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G87">
         <f t="shared" si="8"/>
@@ -2832,10 +2840,10 @@
       </c>
       <c r="H87">
         <f t="shared" si="10"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44227</v>
       </c>
@@ -2852,7 +2860,7 @@
       </c>
       <c r="F88">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G88">
         <f t="shared" si="8"/>
@@ -2860,10 +2868,10 @@
       </c>
       <c r="H88">
         <f t="shared" si="10"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44227</v>
       </c>
@@ -2880,7 +2888,7 @@
       </c>
       <c r="F89">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G89">
         <f t="shared" si="8"/>
@@ -2888,10 +2896,10 @@
       </c>
       <c r="H89">
         <f t="shared" si="10"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44227</v>
       </c>
@@ -2908,7 +2916,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G90">
         <f t="shared" si="8"/>
@@ -2916,10 +2924,10 @@
       </c>
       <c r="H90">
         <f t="shared" si="10"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44227</v>
       </c>
@@ -2936,7 +2944,7 @@
       </c>
       <c r="F91">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G91">
         <f t="shared" si="8"/>
@@ -2944,10 +2952,10 @@
       </c>
       <c r="H91">
         <f t="shared" si="10"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44227</v>
       </c>
@@ -2964,7 +2972,7 @@
       </c>
       <c r="F92">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G92">
         <f t="shared" si="8"/>
@@ -2972,10 +2980,10 @@
       </c>
       <c r="H92">
         <f t="shared" si="10"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44227</v>
       </c>
@@ -2992,7 +3000,7 @@
       </c>
       <c r="F93">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G93">
         <f t="shared" si="8"/>
@@ -3000,10 +3008,10 @@
       </c>
       <c r="H93">
         <f t="shared" si="10"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44227</v>
       </c>
@@ -3020,7 +3028,7 @@
       </c>
       <c r="F94">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G94">
         <f t="shared" si="8"/>
@@ -3028,10 +3036,10 @@
       </c>
       <c r="H94">
         <f t="shared" si="10"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44227</v>
       </c>
@@ -3048,7 +3056,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G95">
         <f t="shared" si="8"/>
@@ -3056,10 +3064,10 @@
       </c>
       <c r="H95">
         <f t="shared" si="10"/>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44227</v>
       </c>
@@ -3076,7 +3084,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G96">
         <f t="shared" si="8"/>
@@ -3084,10 +3092,10 @@
       </c>
       <c r="H96">
         <f t="shared" si="10"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44227</v>
       </c>
@@ -3104,7 +3112,7 @@
       </c>
       <c r="F97">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G97">
         <f t="shared" si="8"/>
@@ -3112,10 +3120,10 @@
       </c>
       <c r="H97">
         <f t="shared" si="10"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44227</v>
       </c>
@@ -3132,7 +3140,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G98">
         <f t="shared" si="8"/>
@@ -3140,10 +3148,10 @@
       </c>
       <c r="H98">
         <f t="shared" si="10"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44227</v>
       </c>
@@ -3160,7 +3168,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G99">
         <f t="shared" si="8"/>
@@ -3168,10 +3176,10 @@
       </c>
       <c r="H99">
         <f t="shared" si="10"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44227</v>
       </c>
@@ -3188,7 +3196,7 @@
       </c>
       <c r="F100">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G100">
         <f t="shared" si="8"/>
@@ -3196,10 +3204,10 @@
       </c>
       <c r="H100">
         <f t="shared" si="10"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44227</v>
       </c>
@@ -3216,7 +3224,7 @@
       </c>
       <c r="F101">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G101">
         <f t="shared" si="8"/>
@@ -3224,10 +3232,10 @@
       </c>
       <c r="H101">
         <f t="shared" si="10"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44227</v>
       </c>
@@ -3244,7 +3252,7 @@
       </c>
       <c r="F102">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G102">
         <f t="shared" si="8"/>
@@ -3252,10 +3260,10 @@
       </c>
       <c r="H102">
         <f t="shared" si="10"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44227</v>
       </c>
@@ -3272,7 +3280,7 @@
       </c>
       <c r="F103">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G103">
         <f t="shared" si="8"/>
@@ -3280,10 +3288,10 @@
       </c>
       <c r="H103">
         <f t="shared" si="10"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44227</v>
       </c>
@@ -3300,7 +3308,7 @@
       </c>
       <c r="F104">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G104">
         <f t="shared" si="8"/>
@@ -3308,10 +3316,10 @@
       </c>
       <c r="H104">
         <f t="shared" si="10"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44227</v>
       </c>
@@ -3328,7 +3336,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G105">
         <f t="shared" si="8"/>
@@ -3336,10 +3344,10 @@
       </c>
       <c r="H105">
         <f t="shared" si="10"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44227</v>
       </c>
@@ -3356,7 +3364,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G106">
         <f t="shared" si="8"/>
@@ -3364,10 +3372,10 @@
       </c>
       <c r="H106">
         <f t="shared" si="10"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44227</v>
       </c>
@@ -3384,7 +3392,7 @@
       </c>
       <c r="F107">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G107">
         <f t="shared" si="8"/>
@@ -3392,10 +3400,10 @@
       </c>
       <c r="H107">
         <f t="shared" si="10"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44227</v>
       </c>
@@ -3412,7 +3420,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G108">
         <f t="shared" si="8"/>
@@ -3420,10 +3428,10 @@
       </c>
       <c r="H108">
         <f t="shared" si="10"/>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44227</v>
       </c>
@@ -3440,7 +3448,7 @@
       </c>
       <c r="F109">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G109">
         <f t="shared" si="8"/>
@@ -3448,10 +3456,10 @@
       </c>
       <c r="H109">
         <f t="shared" si="10"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44227</v>
       </c>
@@ -3468,7 +3476,7 @@
       </c>
       <c r="F110">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G110">
         <f t="shared" si="8"/>
@@ -3476,10 +3484,10 @@
       </c>
       <c r="H110">
         <f t="shared" si="10"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44227</v>
       </c>
@@ -3496,7 +3504,7 @@
       </c>
       <c r="F111">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G111">
         <f t="shared" si="8"/>
@@ -3504,10 +3512,10 @@
       </c>
       <c r="H111">
         <f t="shared" si="10"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44227</v>
       </c>
@@ -3524,7 +3532,7 @@
       </c>
       <c r="F112">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G112">
         <f t="shared" si="8"/>
@@ -3532,10 +3540,10 @@
       </c>
       <c r="H112">
         <f t="shared" si="10"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44227</v>
       </c>
@@ -3552,7 +3560,7 @@
       </c>
       <c r="F113">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G113">
         <f t="shared" si="8"/>
@@ -3560,10 +3568,10 @@
       </c>
       <c r="H113">
         <f t="shared" si="10"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44227</v>
       </c>
@@ -3580,7 +3588,7 @@
       </c>
       <c r="F114">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G114">
         <f t="shared" si="8"/>
@@ -3588,10 +3596,10 @@
       </c>
       <c r="H114">
         <f t="shared" si="10"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44227</v>
       </c>
@@ -3608,7 +3616,7 @@
       </c>
       <c r="F115">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G115">
         <f t="shared" si="8"/>
@@ -3616,10 +3624,10 @@
       </c>
       <c r="H115">
         <f t="shared" si="10"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44227</v>
       </c>
@@ -3636,7 +3644,7 @@
       </c>
       <c r="F116">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G116">
         <f t="shared" si="8"/>
@@ -3644,10 +3652,10 @@
       </c>
       <c r="H116">
         <f t="shared" si="10"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44227</v>
       </c>
@@ -3664,7 +3672,7 @@
       </c>
       <c r="F117">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G117">
         <f t="shared" si="8"/>
@@ -3672,10 +3680,10 @@
       </c>
       <c r="H117">
         <f t="shared" si="10"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44227</v>
       </c>
@@ -3692,7 +3700,7 @@
       </c>
       <c r="F118">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G118">
         <f t="shared" si="8"/>
@@ -3700,10 +3708,10 @@
       </c>
       <c r="H118">
         <f t="shared" si="10"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44227</v>
       </c>
@@ -3720,7 +3728,7 @@
       </c>
       <c r="F119">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G119">
         <f t="shared" si="8"/>
@@ -3728,10 +3736,10 @@
       </c>
       <c r="H119">
         <f t="shared" si="10"/>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44227</v>
       </c>
@@ -3748,7 +3756,7 @@
       </c>
       <c r="F120">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G120">
         <f t="shared" si="8"/>
@@ -3756,10 +3764,10 @@
       </c>
       <c r="H120">
         <f t="shared" si="10"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44227</v>
       </c>
@@ -3776,7 +3784,7 @@
       </c>
       <c r="F121">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G121">
         <f t="shared" si="8"/>
@@ -3784,10 +3792,10 @@
       </c>
       <c r="H121">
         <f t="shared" si="10"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44227</v>
       </c>
@@ -3804,7 +3812,7 @@
       </c>
       <c r="F122">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G122">
         <f t="shared" si="8"/>
@@ -3812,10 +3820,10 @@
       </c>
       <c r="H122">
         <f t="shared" si="10"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44227</v>
       </c>
@@ -3832,7 +3840,7 @@
       </c>
       <c r="F123">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G123">
         <f t="shared" si="8"/>
@@ -3840,10 +3848,10 @@
       </c>
       <c r="H123">
         <f t="shared" si="10"/>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44227</v>
       </c>
@@ -3860,7 +3868,7 @@
       </c>
       <c r="F124">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G124">
         <f t="shared" si="8"/>
@@ -3868,10 +3876,10 @@
       </c>
       <c r="H124">
         <f t="shared" si="10"/>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44227</v>
       </c>
@@ -3888,7 +3896,7 @@
       </c>
       <c r="F125">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G125">
         <f t="shared" si="8"/>
@@ -3896,10 +3904,10 @@
       </c>
       <c r="H125">
         <f t="shared" si="10"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44227</v>
       </c>
@@ -3916,7 +3924,7 @@
       </c>
       <c r="F126">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G126">
         <f t="shared" si="8"/>
@@ -3924,10 +3932,10 @@
       </c>
       <c r="H126">
         <f t="shared" si="10"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44227</v>
       </c>
@@ -3944,7 +3952,7 @@
       </c>
       <c r="F127">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G127">
         <f t="shared" si="8"/>
@@ -3952,10 +3960,10 @@
       </c>
       <c r="H127">
         <f t="shared" si="10"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44227</v>
       </c>
@@ -3972,7 +3980,7 @@
       </c>
       <c r="F128">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G128">
         <f t="shared" si="8"/>
@@ -3980,10 +3988,10 @@
       </c>
       <c r="H128">
         <f t="shared" si="10"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44227</v>
       </c>
@@ -4000,7 +4008,7 @@
       </c>
       <c r="F129">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G129">
         <f t="shared" si="8"/>
@@ -4008,10 +4016,10 @@
       </c>
       <c r="H129">
         <f t="shared" si="10"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44227</v>
       </c>
@@ -4028,7 +4036,7 @@
       </c>
       <c r="F130">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G130">
         <f t="shared" si="8"/>
@@ -4036,10 +4044,10 @@
       </c>
       <c r="H130">
         <f t="shared" si="10"/>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44227</v>
       </c>
@@ -4056,7 +4064,7 @@
       </c>
       <c r="F131">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G131">
         <f t="shared" ref="G131:G194" si="13">536-E131</f>
@@ -4064,10 +4072,10 @@
       </c>
       <c r="H131">
         <f t="shared" si="10"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44227</v>
       </c>
@@ -4084,7 +4092,7 @@
       </c>
       <c r="F132">
         <f t="shared" ref="F132:F195" si="14">C132+F131</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G132">
         <f t="shared" si="13"/>
@@ -4092,10 +4100,10 @@
       </c>
       <c r="H132">
         <f t="shared" si="10"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44227</v>
       </c>
@@ -4112,7 +4120,7 @@
       </c>
       <c r="F133">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G133">
         <f t="shared" si="13"/>
@@ -4120,10 +4128,10 @@
       </c>
       <c r="H133">
         <f t="shared" si="10"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44227</v>
       </c>
@@ -4140,7 +4148,7 @@
       </c>
       <c r="F134">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G134">
         <f t="shared" si="13"/>
@@ -4148,10 +4156,10 @@
       </c>
       <c r="H134">
         <f t="shared" si="10"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44227</v>
       </c>
@@ -4168,7 +4176,7 @@
       </c>
       <c r="F135">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G135">
         <f t="shared" si="13"/>
@@ -4176,10 +4184,10 @@
       </c>
       <c r="H135">
         <f t="shared" si="10"/>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44227</v>
       </c>
@@ -4196,7 +4204,7 @@
       </c>
       <c r="F136">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G136">
         <f t="shared" si="13"/>
@@ -4204,10 +4212,10 @@
       </c>
       <c r="H136">
         <f t="shared" ref="H136:H199" si="15">G136-F136</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44227</v>
       </c>
@@ -4224,7 +4232,7 @@
       </c>
       <c r="F137">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G137">
         <f t="shared" si="13"/>
@@ -4232,10 +4240,10 @@
       </c>
       <c r="H137">
         <f t="shared" si="15"/>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44227</v>
       </c>
@@ -4252,7 +4260,7 @@
       </c>
       <c r="F138">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G138">
         <f t="shared" si="13"/>
@@ -4260,10 +4268,10 @@
       </c>
       <c r="H138">
         <f t="shared" si="15"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44227</v>
       </c>
@@ -4280,7 +4288,7 @@
       </c>
       <c r="F139">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G139">
         <f t="shared" si="13"/>
@@ -4288,10 +4296,10 @@
       </c>
       <c r="H139">
         <f t="shared" si="15"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44227</v>
       </c>
@@ -4308,7 +4316,7 @@
       </c>
       <c r="F140">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G140">
         <f t="shared" si="13"/>
@@ -4316,10 +4324,10 @@
       </c>
       <c r="H140">
         <f t="shared" si="15"/>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44227</v>
       </c>
@@ -4336,7 +4344,7 @@
       </c>
       <c r="F141">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G141">
         <f t="shared" si="13"/>
@@ -4344,10 +4352,10 @@
       </c>
       <c r="H141">
         <f t="shared" si="15"/>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44227</v>
       </c>
@@ -4364,7 +4372,7 @@
       </c>
       <c r="F142">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G142">
         <f t="shared" si="13"/>
@@ -4372,10 +4380,10 @@
       </c>
       <c r="H142">
         <f t="shared" si="15"/>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44227</v>
       </c>
@@ -4392,7 +4400,7 @@
       </c>
       <c r="F143">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G143">
         <f t="shared" si="13"/>
@@ -4400,10 +4408,10 @@
       </c>
       <c r="H143">
         <f t="shared" si="15"/>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44227</v>
       </c>
@@ -4420,7 +4428,7 @@
       </c>
       <c r="F144">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G144">
         <f t="shared" si="13"/>
@@ -4428,10 +4436,10 @@
       </c>
       <c r="H144">
         <f t="shared" si="15"/>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44227</v>
       </c>
@@ -4448,7 +4456,7 @@
       </c>
       <c r="F145">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G145">
         <f t="shared" si="13"/>
@@ -4456,10 +4464,10 @@
       </c>
       <c r="H145">
         <f t="shared" si="15"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44227</v>
       </c>
@@ -4476,7 +4484,7 @@
       </c>
       <c r="F146">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G146">
         <f t="shared" si="13"/>
@@ -4484,10 +4492,10 @@
       </c>
       <c r="H146">
         <f t="shared" si="15"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44227</v>
       </c>
@@ -4504,7 +4512,7 @@
       </c>
       <c r="F147">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G147">
         <f t="shared" si="13"/>
@@ -4512,10 +4520,10 @@
       </c>
       <c r="H147">
         <f t="shared" si="15"/>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44227</v>
       </c>
@@ -4532,7 +4540,7 @@
       </c>
       <c r="F148">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G148">
         <f t="shared" si="13"/>
@@ -4540,10 +4548,10 @@
       </c>
       <c r="H148">
         <f t="shared" si="15"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44227</v>
       </c>
@@ -4560,7 +4568,7 @@
       </c>
       <c r="F149">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G149">
         <f t="shared" si="13"/>
@@ -4568,10 +4576,10 @@
       </c>
       <c r="H149">
         <f t="shared" si="15"/>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44227</v>
       </c>
@@ -4588,7 +4596,7 @@
       </c>
       <c r="F150">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G150">
         <f t="shared" si="13"/>
@@ -4596,10 +4604,10 @@
       </c>
       <c r="H150">
         <f t="shared" si="15"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44227</v>
       </c>
@@ -4616,7 +4624,7 @@
       </c>
       <c r="F151">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G151">
         <f t="shared" si="13"/>
@@ -4624,10 +4632,10 @@
       </c>
       <c r="H151">
         <f t="shared" si="15"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44227</v>
       </c>
@@ -4644,7 +4652,7 @@
       </c>
       <c r="F152">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G152">
         <f t="shared" si="13"/>
@@ -4652,10 +4660,10 @@
       </c>
       <c r="H152">
         <f t="shared" si="15"/>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44227</v>
       </c>
@@ -4672,7 +4680,7 @@
       </c>
       <c r="F153">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G153">
         <f t="shared" si="13"/>
@@ -4680,10 +4688,10 @@
       </c>
       <c r="H153">
         <f t="shared" si="15"/>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44227</v>
       </c>
@@ -4700,7 +4708,7 @@
       </c>
       <c r="F154">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G154">
         <f t="shared" si="13"/>
@@ -4708,10 +4716,10 @@
       </c>
       <c r="H154">
         <f t="shared" si="15"/>
-        <v>291</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44227</v>
       </c>
@@ -4728,7 +4736,7 @@
       </c>
       <c r="F155">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G155">
         <f t="shared" si="13"/>
@@ -4736,10 +4744,10 @@
       </c>
       <c r="H155">
         <f t="shared" si="15"/>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44227</v>
       </c>
@@ -4756,7 +4764,7 @@
       </c>
       <c r="F156">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G156">
         <f t="shared" si="13"/>
@@ -4764,10 +4772,10 @@
       </c>
       <c r="H156">
         <f t="shared" si="15"/>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44227</v>
       </c>
@@ -4784,7 +4792,7 @@
       </c>
       <c r="F157">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G157">
         <f t="shared" si="13"/>
@@ -4792,10 +4800,10 @@
       </c>
       <c r="H157">
         <f t="shared" si="15"/>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44227</v>
       </c>
@@ -4812,7 +4820,7 @@
       </c>
       <c r="F158">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G158">
         <f t="shared" si="13"/>
@@ -4820,10 +4828,10 @@
       </c>
       <c r="H158">
         <f t="shared" si="15"/>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44227</v>
       </c>
@@ -4840,7 +4848,7 @@
       </c>
       <c r="F159">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G159">
         <f t="shared" si="13"/>
@@ -4848,10 +4856,10 @@
       </c>
       <c r="H159">
         <f t="shared" si="15"/>
-        <v>301</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44227</v>
       </c>
@@ -4868,7 +4876,7 @@
       </c>
       <c r="F160">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G160">
         <f t="shared" si="13"/>
@@ -4876,10 +4884,10 @@
       </c>
       <c r="H160">
         <f t="shared" si="15"/>
-        <v>303</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44227</v>
       </c>
@@ -4896,7 +4904,7 @@
       </c>
       <c r="F161">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G161">
         <f t="shared" si="13"/>
@@ -4904,10 +4912,10 @@
       </c>
       <c r="H161">
         <f t="shared" si="15"/>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44227</v>
       </c>
@@ -4924,7 +4932,7 @@
       </c>
       <c r="F162">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G162">
         <f t="shared" si="13"/>
@@ -4932,10 +4940,10 @@
       </c>
       <c r="H162">
         <f t="shared" si="15"/>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44227</v>
       </c>
@@ -4952,7 +4960,7 @@
       </c>
       <c r="F163">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G163">
         <f t="shared" si="13"/>
@@ -4960,10 +4968,10 @@
       </c>
       <c r="H163">
         <f t="shared" si="15"/>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44227</v>
       </c>
@@ -4980,7 +4988,7 @@
       </c>
       <c r="F164">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G164">
         <f t="shared" si="13"/>
@@ -4988,10 +4996,10 @@
       </c>
       <c r="H164">
         <f t="shared" si="15"/>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44227</v>
       </c>
@@ -5008,7 +5016,7 @@
       </c>
       <c r="F165">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G165">
         <f t="shared" si="13"/>
@@ -5016,10 +5024,10 @@
       </c>
       <c r="H165">
         <f t="shared" si="15"/>
-        <v>313</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44227</v>
       </c>
@@ -5036,7 +5044,7 @@
       </c>
       <c r="F166">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G166">
         <f t="shared" si="13"/>
@@ -5044,10 +5052,10 @@
       </c>
       <c r="H166">
         <f t="shared" si="15"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44227</v>
       </c>
@@ -5064,7 +5072,7 @@
       </c>
       <c r="F167">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G167">
         <f t="shared" si="13"/>
@@ -5072,10 +5080,10 @@
       </c>
       <c r="H167">
         <f t="shared" si="15"/>
-        <v>317</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44227</v>
       </c>
@@ -5092,7 +5100,7 @@
       </c>
       <c r="F168">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G168">
         <f t="shared" si="13"/>
@@ -5100,10 +5108,10 @@
       </c>
       <c r="H168">
         <f t="shared" si="15"/>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44227</v>
       </c>
@@ -5120,7 +5128,7 @@
       </c>
       <c r="F169">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G169">
         <f t="shared" si="13"/>
@@ -5128,10 +5136,10 @@
       </c>
       <c r="H169">
         <f t="shared" si="15"/>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44227</v>
       </c>
@@ -5148,7 +5156,7 @@
       </c>
       <c r="F170">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G170">
         <f t="shared" si="13"/>
@@ -5156,10 +5164,10 @@
       </c>
       <c r="H170">
         <f t="shared" si="15"/>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44227</v>
       </c>
@@ -5176,7 +5184,7 @@
       </c>
       <c r="F171">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G171">
         <f t="shared" si="13"/>
@@ -5184,10 +5192,10 @@
       </c>
       <c r="H171">
         <f t="shared" si="15"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44227</v>
       </c>
@@ -5204,7 +5212,7 @@
       </c>
       <c r="F172">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G172">
         <f t="shared" si="13"/>
@@ -5212,10 +5220,10 @@
       </c>
       <c r="H172">
         <f t="shared" si="15"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44227</v>
       </c>
@@ -5232,7 +5240,7 @@
       </c>
       <c r="F173">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G173">
         <f t="shared" si="13"/>
@@ -5240,10 +5248,10 @@
       </c>
       <c r="H173">
         <f t="shared" si="15"/>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44227</v>
       </c>
@@ -5260,7 +5268,7 @@
       </c>
       <c r="F174">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G174">
         <f t="shared" si="13"/>
@@ -5268,10 +5276,10 @@
       </c>
       <c r="H174">
         <f t="shared" si="15"/>
-        <v>331</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44227</v>
       </c>
@@ -5288,7 +5296,7 @@
       </c>
       <c r="F175">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G175">
         <f t="shared" si="13"/>
@@ -5296,10 +5304,10 @@
       </c>
       <c r="H175">
         <f t="shared" si="15"/>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -5316,7 +5324,7 @@
       </c>
       <c r="F176">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G176">
         <f t="shared" si="13"/>
@@ -5324,10 +5332,10 @@
       </c>
       <c r="H176">
         <f t="shared" si="15"/>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44227</v>
       </c>
@@ -5344,7 +5352,7 @@
       </c>
       <c r="F177">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G177">
         <f t="shared" si="13"/>
@@ -5352,10 +5360,10 @@
       </c>
       <c r="H177">
         <f t="shared" si="15"/>
-        <v>337</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44227</v>
       </c>
@@ -5372,7 +5380,7 @@
       </c>
       <c r="F178">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G178">
         <f t="shared" si="13"/>
@@ -5380,10 +5388,10 @@
       </c>
       <c r="H178">
         <f t="shared" si="15"/>
-        <v>339</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44227</v>
       </c>
@@ -5400,7 +5408,7 @@
       </c>
       <c r="F179">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G179">
         <f t="shared" si="13"/>
@@ -5408,10 +5416,10 @@
       </c>
       <c r="H179">
         <f t="shared" si="15"/>
-        <v>341</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44227</v>
       </c>
@@ -5428,7 +5436,7 @@
       </c>
       <c r="F180">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G180">
         <f t="shared" si="13"/>
@@ -5436,10 +5444,10 @@
       </c>
       <c r="H180">
         <f t="shared" si="15"/>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44227</v>
       </c>
@@ -5456,7 +5464,7 @@
       </c>
       <c r="F181">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G181">
         <f t="shared" si="13"/>
@@ -5464,10 +5472,10 @@
       </c>
       <c r="H181">
         <f t="shared" si="15"/>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44227</v>
       </c>
@@ -5484,7 +5492,7 @@
       </c>
       <c r="F182">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G182">
         <f t="shared" si="13"/>
@@ -5492,10 +5500,10 @@
       </c>
       <c r="H182">
         <f t="shared" si="15"/>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44227</v>
       </c>
@@ -5512,7 +5520,7 @@
       </c>
       <c r="F183">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G183">
         <f t="shared" si="13"/>
@@ -5520,10 +5528,10 @@
       </c>
       <c r="H183">
         <f t="shared" si="15"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44227</v>
       </c>
@@ -5540,7 +5548,7 @@
       </c>
       <c r="F184">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G184">
         <f t="shared" si="13"/>
@@ -5548,10 +5556,10 @@
       </c>
       <c r="H184">
         <f t="shared" si="15"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44227</v>
       </c>
@@ -5568,7 +5576,7 @@
       </c>
       <c r="F185">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G185">
         <f t="shared" si="13"/>
@@ -5576,10 +5584,10 @@
       </c>
       <c r="H185">
         <f t="shared" si="15"/>
-        <v>353</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44227</v>
       </c>
@@ -5596,7 +5604,7 @@
       </c>
       <c r="F186">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G186">
         <f t="shared" si="13"/>
@@ -5604,10 +5612,10 @@
       </c>
       <c r="H186">
         <f t="shared" si="15"/>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44227</v>
       </c>
@@ -5624,7 +5632,7 @@
       </c>
       <c r="F187">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G187">
         <f t="shared" si="13"/>
@@ -5632,10 +5640,10 @@
       </c>
       <c r="H187">
         <f t="shared" si="15"/>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44227</v>
       </c>
@@ -5652,7 +5660,7 @@
       </c>
       <c r="F188">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G188">
         <f t="shared" si="13"/>
@@ -5660,10 +5668,10 @@
       </c>
       <c r="H188">
         <f t="shared" si="15"/>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44227</v>
       </c>
@@ -5680,7 +5688,7 @@
       </c>
       <c r="F189">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G189">
         <f t="shared" si="13"/>
@@ -5688,10 +5696,10 @@
       </c>
       <c r="H189">
         <f t="shared" si="15"/>
-        <v>361</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44227</v>
       </c>
@@ -5708,7 +5716,7 @@
       </c>
       <c r="F190">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G190">
         <f t="shared" si="13"/>
@@ -5716,10 +5724,10 @@
       </c>
       <c r="H190">
         <f t="shared" si="15"/>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44227</v>
       </c>
@@ -5736,7 +5744,7 @@
       </c>
       <c r="F191">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G191">
         <f t="shared" si="13"/>
@@ -5744,10 +5752,10 @@
       </c>
       <c r="H191">
         <f t="shared" si="15"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44227</v>
       </c>
@@ -5764,7 +5772,7 @@
       </c>
       <c r="F192">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G192">
         <f t="shared" si="13"/>
@@ -5772,10 +5780,10 @@
       </c>
       <c r="H192">
         <f t="shared" si="15"/>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44227</v>
       </c>
@@ -5792,7 +5800,7 @@
       </c>
       <c r="F193">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G193">
         <f t="shared" si="13"/>
@@ -5800,10 +5808,10 @@
       </c>
       <c r="H193">
         <f t="shared" si="15"/>
-        <v>369</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44227</v>
       </c>
@@ -5820,7 +5828,7 @@
       </c>
       <c r="F194">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G194">
         <f t="shared" si="13"/>
@@ -5828,10 +5836,10 @@
       </c>
       <c r="H194">
         <f t="shared" si="15"/>
-        <v>371</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44227</v>
       </c>
@@ -5848,7 +5856,7 @@
       </c>
       <c r="F195">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G195">
         <f t="shared" ref="G195:G258" si="18">536-E195</f>
@@ -5856,10 +5864,10 @@
       </c>
       <c r="H195">
         <f t="shared" si="15"/>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44227</v>
       </c>
@@ -5876,7 +5884,7 @@
       </c>
       <c r="F196">
         <f t="shared" ref="F196:F259" si="19">C196+F195</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G196">
         <f t="shared" si="18"/>
@@ -5884,10 +5892,10 @@
       </c>
       <c r="H196">
         <f t="shared" si="15"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44227</v>
       </c>
@@ -5904,7 +5912,7 @@
       </c>
       <c r="F197">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G197">
         <f t="shared" si="18"/>
@@ -5912,10 +5920,10 @@
       </c>
       <c r="H197">
         <f t="shared" si="15"/>
-        <v>377</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44227</v>
       </c>
@@ -5932,7 +5940,7 @@
       </c>
       <c r="F198">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G198">
         <f t="shared" si="18"/>
@@ -5940,10 +5948,10 @@
       </c>
       <c r="H198">
         <f t="shared" si="15"/>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44227</v>
       </c>
@@ -5960,7 +5968,7 @@
       </c>
       <c r="F199">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G199">
         <f t="shared" si="18"/>
@@ -5968,10 +5976,10 @@
       </c>
       <c r="H199">
         <f t="shared" si="15"/>
-        <v>381</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44227</v>
       </c>
@@ -5988,7 +5996,7 @@
       </c>
       <c r="F200">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G200">
         <f t="shared" si="18"/>
@@ -5996,10 +6004,10 @@
       </c>
       <c r="H200">
         <f t="shared" ref="H200:H263" si="20">G200-F200</f>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44227</v>
       </c>
@@ -6016,7 +6024,7 @@
       </c>
       <c r="F201">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G201">
         <f t="shared" si="18"/>
@@ -6024,10 +6032,10 @@
       </c>
       <c r="H201">
         <f t="shared" si="20"/>
-        <v>385</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44227</v>
       </c>
@@ -6044,7 +6052,7 @@
       </c>
       <c r="F202">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G202">
         <f t="shared" si="18"/>
@@ -6052,10 +6060,10 @@
       </c>
       <c r="H202">
         <f t="shared" si="20"/>
-        <v>387</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44227</v>
       </c>
@@ -6072,7 +6080,7 @@
       </c>
       <c r="F203">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G203">
         <f t="shared" si="18"/>
@@ -6080,10 +6088,10 @@
       </c>
       <c r="H203">
         <f t="shared" si="20"/>
-        <v>389</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44227</v>
       </c>
@@ -6100,7 +6108,7 @@
       </c>
       <c r="F204">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G204">
         <f t="shared" si="18"/>
@@ -6108,10 +6116,10 @@
       </c>
       <c r="H204">
         <f t="shared" si="20"/>
-        <v>391</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44227</v>
       </c>
@@ -6128,7 +6136,7 @@
       </c>
       <c r="F205">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G205">
         <f t="shared" si="18"/>
@@ -6136,10 +6144,10 @@
       </c>
       <c r="H205">
         <f t="shared" si="20"/>
-        <v>393</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44227</v>
       </c>
@@ -6156,7 +6164,7 @@
       </c>
       <c r="F206">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G206">
         <f t="shared" si="18"/>
@@ -6164,10 +6172,10 @@
       </c>
       <c r="H206">
         <f t="shared" si="20"/>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44227</v>
       </c>
@@ -6184,7 +6192,7 @@
       </c>
       <c r="F207">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G207">
         <f t="shared" si="18"/>
@@ -6192,10 +6200,10 @@
       </c>
       <c r="H207">
         <f t="shared" si="20"/>
-        <v>397</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44227</v>
       </c>
@@ -6212,7 +6220,7 @@
       </c>
       <c r="F208">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G208">
         <f t="shared" si="18"/>
@@ -6220,10 +6228,10 @@
       </c>
       <c r="H208">
         <f t="shared" si="20"/>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44227</v>
       </c>
@@ -6240,7 +6248,7 @@
       </c>
       <c r="F209">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G209">
         <f t="shared" si="18"/>
@@ -6248,10 +6256,10 @@
       </c>
       <c r="H209">
         <f t="shared" si="20"/>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44227</v>
       </c>
@@ -6268,7 +6276,7 @@
       </c>
       <c r="F210">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G210">
         <f t="shared" si="18"/>
@@ -6276,10 +6284,10 @@
       </c>
       <c r="H210">
         <f t="shared" si="20"/>
-        <v>403</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44227</v>
       </c>
@@ -6296,7 +6304,7 @@
       </c>
       <c r="F211">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G211">
         <f t="shared" si="18"/>
@@ -6304,10 +6312,10 @@
       </c>
       <c r="H211">
         <f t="shared" si="20"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44227</v>
       </c>
@@ -6324,7 +6332,7 @@
       </c>
       <c r="F212">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G212">
         <f t="shared" si="18"/>
@@ -6332,10 +6340,10 @@
       </c>
       <c r="H212">
         <f t="shared" si="20"/>
-        <v>407</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44227</v>
       </c>
@@ -6352,7 +6360,7 @@
       </c>
       <c r="F213">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G213">
         <f t="shared" si="18"/>
@@ -6360,10 +6368,10 @@
       </c>
       <c r="H213">
         <f t="shared" si="20"/>
-        <v>409</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44227</v>
       </c>
@@ -6380,7 +6388,7 @@
       </c>
       <c r="F214">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G214">
         <f t="shared" si="18"/>
@@ -6388,10 +6396,10 @@
       </c>
       <c r="H214">
         <f t="shared" si="20"/>
-        <v>411</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44227</v>
       </c>
@@ -6408,7 +6416,7 @@
       </c>
       <c r="F215">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G215">
         <f t="shared" si="18"/>
@@ -6416,10 +6424,10 @@
       </c>
       <c r="H215">
         <f t="shared" si="20"/>
-        <v>413</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44227</v>
       </c>
@@ -6436,7 +6444,7 @@
       </c>
       <c r="F216">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G216">
         <f t="shared" si="18"/>
@@ -6444,10 +6452,10 @@
       </c>
       <c r="H216">
         <f t="shared" si="20"/>
-        <v>415</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44227</v>
       </c>
@@ -6464,7 +6472,7 @@
       </c>
       <c r="F217">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G217">
         <f t="shared" si="18"/>
@@ -6472,10 +6480,10 @@
       </c>
       <c r="H217">
         <f t="shared" si="20"/>
-        <v>417</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44227</v>
       </c>
@@ -6492,7 +6500,7 @@
       </c>
       <c r="F218">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G218">
         <f t="shared" si="18"/>
@@ -6500,10 +6508,10 @@
       </c>
       <c r="H218">
         <f t="shared" si="20"/>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44227</v>
       </c>
@@ -6520,7 +6528,7 @@
       </c>
       <c r="F219">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G219">
         <f t="shared" si="18"/>
@@ -6528,10 +6536,10 @@
       </c>
       <c r="H219">
         <f t="shared" si="20"/>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44227</v>
       </c>
@@ -6548,7 +6556,7 @@
       </c>
       <c r="F220">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G220">
         <f t="shared" si="18"/>
@@ -6556,10 +6564,10 @@
       </c>
       <c r="H220">
         <f t="shared" si="20"/>
-        <v>423</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44227</v>
       </c>
@@ -6576,7 +6584,7 @@
       </c>
       <c r="F221">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G221">
         <f t="shared" si="18"/>
@@ -6584,10 +6592,10 @@
       </c>
       <c r="H221">
         <f t="shared" si="20"/>
-        <v>425</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44227</v>
       </c>
@@ -6604,7 +6612,7 @@
       </c>
       <c r="F222">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G222">
         <f t="shared" si="18"/>
@@ -6612,10 +6620,10 @@
       </c>
       <c r="H222">
         <f t="shared" si="20"/>
-        <v>427</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44227</v>
       </c>
@@ -6632,7 +6640,7 @@
       </c>
       <c r="F223">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G223">
         <f t="shared" si="18"/>
@@ -6640,10 +6648,10 @@
       </c>
       <c r="H223">
         <f t="shared" si="20"/>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44227</v>
       </c>
@@ -6660,7 +6668,7 @@
       </c>
       <c r="F224">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G224">
         <f t="shared" si="18"/>
@@ -6668,10 +6676,10 @@
       </c>
       <c r="H224">
         <f t="shared" si="20"/>
-        <v>431</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44227</v>
       </c>
@@ -6688,7 +6696,7 @@
       </c>
       <c r="F225">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G225">
         <f t="shared" si="18"/>
@@ -6696,10 +6704,10 @@
       </c>
       <c r="H225">
         <f t="shared" si="20"/>
-        <v>433</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44227</v>
       </c>
@@ -6716,7 +6724,7 @@
       </c>
       <c r="F226">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G226">
         <f t="shared" si="18"/>
@@ -6724,10 +6732,10 @@
       </c>
       <c r="H226">
         <f t="shared" si="20"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44227</v>
       </c>
@@ -6744,7 +6752,7 @@
       </c>
       <c r="F227">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G227">
         <f t="shared" si="18"/>
@@ -6752,10 +6760,10 @@
       </c>
       <c r="H227">
         <f t="shared" si="20"/>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44227</v>
       </c>
@@ -6772,7 +6780,7 @@
       </c>
       <c r="F228">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G228">
         <f t="shared" si="18"/>
@@ -6780,10 +6788,10 @@
       </c>
       <c r="H228">
         <f t="shared" si="20"/>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44227</v>
       </c>
@@ -6800,7 +6808,7 @@
       </c>
       <c r="F229">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G229">
         <f t="shared" si="18"/>
@@ -6808,10 +6816,10 @@
       </c>
       <c r="H229">
         <f t="shared" si="20"/>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44227</v>
       </c>
@@ -6828,7 +6836,7 @@
       </c>
       <c r="F230">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G230">
         <f t="shared" si="18"/>
@@ -6836,10 +6844,10 @@
       </c>
       <c r="H230">
         <f t="shared" si="20"/>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44227</v>
       </c>
@@ -6856,7 +6864,7 @@
       </c>
       <c r="F231">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G231">
         <f t="shared" si="18"/>
@@ -6864,10 +6872,10 @@
       </c>
       <c r="H231">
         <f t="shared" si="20"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44227</v>
       </c>
@@ -6884,7 +6892,7 @@
       </c>
       <c r="F232">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G232">
         <f t="shared" si="18"/>
@@ -6892,10 +6900,10 @@
       </c>
       <c r="H232">
         <f t="shared" si="20"/>
-        <v>447</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44227</v>
       </c>
@@ -6912,7 +6920,7 @@
       </c>
       <c r="F233">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G233">
         <f t="shared" si="18"/>
@@ -6920,10 +6928,10 @@
       </c>
       <c r="H233">
         <f t="shared" si="20"/>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44227</v>
       </c>
@@ -6940,7 +6948,7 @@
       </c>
       <c r="F234">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G234">
         <f t="shared" si="18"/>
@@ -6948,10 +6956,10 @@
       </c>
       <c r="H234">
         <f t="shared" si="20"/>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44227</v>
       </c>
@@ -6968,7 +6976,7 @@
       </c>
       <c r="F235">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G235">
         <f t="shared" si="18"/>
@@ -6976,10 +6984,10 @@
       </c>
       <c r="H235">
         <f t="shared" si="20"/>
-        <v>453</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44227</v>
       </c>
@@ -6996,7 +7004,7 @@
       </c>
       <c r="F236">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G236">
         <f t="shared" si="18"/>
@@ -7004,10 +7012,10 @@
       </c>
       <c r="H236">
         <f t="shared" si="20"/>
-        <v>455</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44227</v>
       </c>
@@ -7024,7 +7032,7 @@
       </c>
       <c r="F237">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G237">
         <f t="shared" si="18"/>
@@ -7032,10 +7040,10 @@
       </c>
       <c r="H237">
         <f t="shared" si="20"/>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44227</v>
       </c>
@@ -7052,7 +7060,7 @@
       </c>
       <c r="F238">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G238">
         <f t="shared" si="18"/>
@@ -7060,10 +7068,10 @@
       </c>
       <c r="H238">
         <f t="shared" si="20"/>
-        <v>459</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44227</v>
       </c>
@@ -7080,7 +7088,7 @@
       </c>
       <c r="F239">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G239">
         <f t="shared" si="18"/>
@@ -7088,10 +7096,10 @@
       </c>
       <c r="H239">
         <f t="shared" si="20"/>
-        <v>461</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44227</v>
       </c>
@@ -7108,7 +7116,7 @@
       </c>
       <c r="F240">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G240">
         <f t="shared" si="18"/>
@@ -7116,10 +7124,10 @@
       </c>
       <c r="H240">
         <f t="shared" si="20"/>
-        <v>463</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44227</v>
       </c>
@@ -7136,7 +7144,7 @@
       </c>
       <c r="F241">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G241">
         <f t="shared" si="18"/>
@@ -7144,10 +7152,10 @@
       </c>
       <c r="H241">
         <f t="shared" si="20"/>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44227</v>
       </c>
@@ -7164,7 +7172,7 @@
       </c>
       <c r="F242">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G242">
         <f t="shared" si="18"/>
@@ -7172,10 +7180,10 @@
       </c>
       <c r="H242">
         <f t="shared" si="20"/>
-        <v>467</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44227</v>
       </c>
@@ -7192,7 +7200,7 @@
       </c>
       <c r="F243">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G243">
         <f t="shared" si="18"/>
@@ -7200,10 +7208,10 @@
       </c>
       <c r="H243">
         <f t="shared" si="20"/>
-        <v>469</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44227</v>
       </c>
@@ -7220,7 +7228,7 @@
       </c>
       <c r="F244">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G244">
         <f t="shared" si="18"/>
@@ -7228,10 +7236,10 @@
       </c>
       <c r="H244">
         <f t="shared" si="20"/>
-        <v>471</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44227</v>
       </c>
@@ -7248,7 +7256,7 @@
       </c>
       <c r="F245">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G245">
         <f t="shared" si="18"/>
@@ -7256,10 +7264,10 @@
       </c>
       <c r="H245">
         <f t="shared" si="20"/>
-        <v>473</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44227</v>
       </c>
@@ -7276,7 +7284,7 @@
       </c>
       <c r="F246">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G246">
         <f t="shared" si="18"/>
@@ -7284,10 +7292,10 @@
       </c>
       <c r="H246">
         <f t="shared" si="20"/>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44227</v>
       </c>
@@ -7304,7 +7312,7 @@
       </c>
       <c r="F247">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G247">
         <f t="shared" si="18"/>
@@ -7312,10 +7320,10 @@
       </c>
       <c r="H247">
         <f t="shared" si="20"/>
-        <v>477</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44227</v>
       </c>
@@ -7332,7 +7340,7 @@
       </c>
       <c r="F248">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G248">
         <f t="shared" si="18"/>
@@ -7340,10 +7348,10 @@
       </c>
       <c r="H248">
         <f t="shared" si="20"/>
-        <v>479</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44227</v>
       </c>
@@ -7360,7 +7368,7 @@
       </c>
       <c r="F249">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G249">
         <f t="shared" si="18"/>
@@ -7368,10 +7376,10 @@
       </c>
       <c r="H249">
         <f t="shared" si="20"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44227</v>
       </c>
@@ -7388,7 +7396,7 @@
       </c>
       <c r="F250">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G250">
         <f t="shared" si="18"/>
@@ -7396,10 +7404,10 @@
       </c>
       <c r="H250">
         <f t="shared" si="20"/>
-        <v>483</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44227</v>
       </c>
@@ -7416,7 +7424,7 @@
       </c>
       <c r="F251">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G251">
         <f t="shared" si="18"/>
@@ -7424,10 +7432,10 @@
       </c>
       <c r="H251">
         <f t="shared" si="20"/>
-        <v>485</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44227</v>
       </c>
@@ -7444,7 +7452,7 @@
       </c>
       <c r="F252">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G252">
         <f t="shared" si="18"/>
@@ -7452,10 +7460,10 @@
       </c>
       <c r="H252">
         <f t="shared" si="20"/>
-        <v>487</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44227</v>
       </c>
@@ -7472,7 +7480,7 @@
       </c>
       <c r="F253">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G253">
         <f t="shared" si="18"/>
@@ -7480,10 +7488,10 @@
       </c>
       <c r="H253">
         <f t="shared" si="20"/>
-        <v>489</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44227</v>
       </c>
@@ -7500,7 +7508,7 @@
       </c>
       <c r="F254">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G254">
         <f t="shared" si="18"/>
@@ -7508,10 +7516,10 @@
       </c>
       <c r="H254">
         <f t="shared" si="20"/>
-        <v>491</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44227</v>
       </c>
@@ -7528,7 +7536,7 @@
       </c>
       <c r="F255">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G255">
         <f t="shared" si="18"/>
@@ -7536,10 +7544,10 @@
       </c>
       <c r="H255">
         <f t="shared" si="20"/>
-        <v>493</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44227</v>
       </c>
@@ -7556,7 +7564,7 @@
       </c>
       <c r="F256">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G256">
         <f t="shared" si="18"/>
@@ -7564,10 +7572,10 @@
       </c>
       <c r="H256">
         <f t="shared" si="20"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44227</v>
       </c>
@@ -7584,7 +7592,7 @@
       </c>
       <c r="F257">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G257">
         <f t="shared" si="18"/>
@@ -7592,10 +7600,10 @@
       </c>
       <c r="H257">
         <f t="shared" si="20"/>
-        <v>497</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44227</v>
       </c>
@@ -7612,7 +7620,7 @@
       </c>
       <c r="F258">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G258">
         <f t="shared" si="18"/>
@@ -7620,10 +7628,10 @@
       </c>
       <c r="H258">
         <f t="shared" si="20"/>
-        <v>499</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44227</v>
       </c>
@@ -7640,7 +7648,7 @@
       </c>
       <c r="F259">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G259">
         <f t="shared" ref="G259:G269" si="23">536-E259</f>
@@ -7648,10 +7656,10 @@
       </c>
       <c r="H259">
         <f t="shared" si="20"/>
-        <v>501</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44227</v>
       </c>
@@ -7668,7 +7676,7 @@
       </c>
       <c r="F260">
         <f t="shared" ref="F260:F269" si="24">C260+F259</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G260">
         <f t="shared" si="23"/>
@@ -7676,10 +7684,10 @@
       </c>
       <c r="H260">
         <f t="shared" si="20"/>
-        <v>503</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44227</v>
       </c>
@@ -7696,7 +7704,7 @@
       </c>
       <c r="F261">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G261">
         <f t="shared" si="23"/>
@@ -7704,10 +7712,10 @@
       </c>
       <c r="H261">
         <f t="shared" si="20"/>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44227</v>
       </c>
@@ -7724,7 +7732,7 @@
       </c>
       <c r="F262">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G262">
         <f t="shared" si="23"/>
@@ -7732,10 +7740,10 @@
       </c>
       <c r="H262">
         <f t="shared" si="20"/>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44227</v>
       </c>
@@ -7752,7 +7760,7 @@
       </c>
       <c r="F263">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G263">
         <f t="shared" si="23"/>
@@ -7760,10 +7768,10 @@
       </c>
       <c r="H263">
         <f t="shared" si="20"/>
-        <v>509</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44227</v>
       </c>
@@ -7780,7 +7788,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G264">
         <f t="shared" si="23"/>
@@ -7788,10 +7796,10 @@
       </c>
       <c r="H264">
         <f t="shared" ref="H264:H269" si="25">G264-F264</f>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44227</v>
       </c>
@@ -7808,7 +7816,7 @@
       </c>
       <c r="F265">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G265">
         <f t="shared" si="23"/>
@@ -7816,10 +7824,10 @@
       </c>
       <c r="H265">
         <f t="shared" si="25"/>
-        <v>513</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44227</v>
       </c>
@@ -7836,7 +7844,7 @@
       </c>
       <c r="F266">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G266">
         <f t="shared" si="23"/>
@@ -7844,10 +7852,10 @@
       </c>
       <c r="H266">
         <f t="shared" si="25"/>
-        <v>515</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44227</v>
       </c>
@@ -7864,7 +7872,7 @@
       </c>
       <c r="F267">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G267">
         <f t="shared" si="23"/>
@@ -7872,10 +7880,10 @@
       </c>
       <c r="H267">
         <f t="shared" si="25"/>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44227</v>
       </c>
@@ -7892,7 +7900,7 @@
       </c>
       <c r="F268">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G268">
         <f t="shared" si="23"/>
@@ -7900,10 +7908,10 @@
       </c>
       <c r="H268">
         <f t="shared" si="25"/>
-        <v>519</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44227</v>
       </c>
@@ -7920,7 +7928,7 @@
       </c>
       <c r="F269">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G269">
         <f t="shared" si="23"/>
@@ -7928,7 +7936,7 @@
       </c>
       <c r="H269">
         <f t="shared" si="25"/>
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
